--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MyWeb\webroot\todo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MyWeb\webroot\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -217,10 +217,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>cake2_todo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>todos</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -400,6 +396,30 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cake2_notebook</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategory_id</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -407,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +683,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +730,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -781,7 +814,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,8 +836,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,8 +997,11 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - アクセント 4" xfId="2" builtinId="43"/>
     <cellStyle name="アクセント 1" xfId="4" builtinId="29"/>
     <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
@@ -970,8 +1009,114 @@
     <cellStyle name="メモ 2" xfId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="良い" xfId="7" builtinId="26"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1269,8 +1414,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="40"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="39"/>
+    <tableColumn id="1" name="No." dataDxfId="55"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="54"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1564,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1589,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -1597,7 +1742,7 @@
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="str">
         <f>"CREATE DATABASE `" &amp; C1 &amp; "` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;"</f>
-        <v>CREATE DATABASE `cake2_todo` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</v>
+        <v>CREATE DATABASE `cake2_notebook` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1611,1085 +1756,982 @@
       <c r="A3" s="43"/>
       <c r="H3" s="29"/>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="42"/>
+      <c r="D4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C6 &amp; "` ("</f>
-        <v>CREATE TABLE `todopages` (</v>
+      <c r="B5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `todocategories` (</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="16">
+        <v>128</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="27" t="s">
-        <v>3</v>
+      <c r="I7" s="36" t="str">
+        <f t="shared" ref="I7:I8" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="16">
-        <v>128</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I10" si="0">IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="I9" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="H10" s="29"/>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="I11" s="37" t="s">
-        <v>2</v>
+      <c r="D11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C12 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D13" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16">
+        <v>256</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C14 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="36" t="str">
+        <f t="shared" ref="I14:I18" si="1">IF(A14="","","/* ") &amp; "`" &amp; C14 &amp; "` " &amp; D14 &amp; IF(E14&gt;0,"(" &amp; E14 &amp; ") "," ") &amp; IF(F14&lt;&gt;"","NOT NULL ","") &amp; IF(G14="","","DEFAULT '" &amp; G14 &amp; "' ") &amp; "COMMENT '"&amp; B14 &amp;"'," &amp; IF(A14="",""," */")</f>
+        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="27" t="s">
-        <v>3</v>
+      <c r="I15" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="I16" s="36" t="str">
-        <f t="shared" ref="I16" si="1">IF(A16="","","/* ") &amp; "`" &amp; C16 &amp; "` " &amp; D16 &amp; IF(E16&gt;0,"(" &amp; E16 &amp; ") "," ") &amp; IF(F16&lt;&gt;"","NOT NULL ","") &amp; IF(G16="","","DEFAULT '" &amp; G16 &amp; "' ") &amp; "COMMENT '"&amp; B16 &amp;"'," &amp; IF(A16="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
+        <f>IF(A16="","","/* ") &amp; "`" &amp; C16 &amp; "` " &amp; D16 &amp; IF(E16&gt;0,"(" &amp; E16 &amp; ") "," ") &amp; IF(F16&lt;&gt;"","NOT NULL ","") &amp; IF(G16="","","DEFAULT '" &amp; G16 &amp; "' ") &amp; "COMMENT '"&amp; B16 &amp;"'," &amp; IF(A16="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
       <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="36" t="str">
-        <f t="shared" ref="I17" si="2">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" si="1"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16">
-        <v>128</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="36" t="str">
-        <f t="shared" ref="I18:I21" si="3">IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
+        <f t="shared" si="1"/>
+        <v>`completed` DATETIME COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="I19" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="43"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="43"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C32 &amp; "` ("</f>
+        <v>CREATE TABLE `todopages` (</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="16">
+        <v>128</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="36" t="str">
+        <f t="shared" ref="I34:I36" si="2">IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; "COMMENT '"&amp; B34 &amp;"'," &amp; IF(A34="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="16">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="36" t="str">
-        <f t="shared" si="3"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="36" t="str">
+        <f t="shared" si="2"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="I22" s="37" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="I37" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="30" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D39" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G39" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C25 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="36" t="str">
-        <f t="shared" ref="I27" si="4">IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; "COMMENT '"&amp; B27 &amp;"'," &amp; IF(A27="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="36" t="str">
-        <f t="shared" ref="I28:I32" si="5">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="16">
-        <v>128</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="I33" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
-        <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="36" t="str">
-        <f t="shared" ref="I38" si="6">IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; "COMMENT '"&amp; B38 &amp;"'," &amp; IF(A38="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="16">
-        <v>128</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="36" t="str">
-        <f t="shared" ref="I39:I45" si="7">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C40 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="36" t="str">
-        <f t="shared" ref="I41:I42" si="8">IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; "COMMENT '"&amp; B41 &amp;"'," &amp; IF(A41="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+      <c r="I41" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <f t="shared" ref="I42" si="3">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="16">
-        <v>32</v>
-      </c>
-      <c r="F43" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
       <c r="I43" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I43" si="4">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="16">
-        <v>32</v>
-      </c>
-      <c r="F44" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="36" t="str">
-        <f t="shared" ref="I44" si="9">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" ref="I44:I47" si="5">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
       <c r="B45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="5"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
-      <c r="I46" s="37" t="s">
+      <c r="B46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="22"/>
+      <c r="I48" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="42"/>
-      <c r="D48" s="30" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E50" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H50" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C49 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="16">
-        <v>128</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="36" t="str">
-        <f t="shared" ref="I51:I53" si="10">IF(A51="","","/* ") &amp; "`" &amp; C51 &amp; "` " &amp; D51 &amp; IF(E51&gt;0,"(" &amp; E51 &amp; ") "," ") &amp; IF(F51&lt;&gt;"","NOT NULL ","") &amp; IF(G51="","","DEFAULT '" &amp; G51 &amp; "' ") &amp; "COMMENT '"&amp; B51 &amp;"'," &amp; IF(A51="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      <c r="I52" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
       <c r="B53" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
       <c r="I53" s="36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I53" si="6">IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; "COMMENT '"&amp; B53 &amp;"'," &amp; IF(A53="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36" t="str">
+        <f t="shared" ref="I54:I58" si="7">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16">
+        <v>128</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="22"/>
+      <c r="B57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="36" t="str">
+        <f t="shared" si="7"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="22"/>
-      <c r="I54" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B57" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C57 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="22"/>
       <c r="B58" s="15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="I59" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+        <v>CREATE TABLE `events` (</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="16">
-        <v>128</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="36" t="str">
-        <f t="shared" ref="I59" si="11">IF(A59="","","/* ") &amp; "`" &amp; C59 &amp; "` " &amp; D59 &amp; IF(E59&gt;0,"(" &amp; E59 &amp; ") "," ") &amp; IF(F59&lt;&gt;"","NOT NULL ","") &amp; IF(G59="","","DEFAULT '" &amp; G59 &amp; "' ") &amp; "COMMENT '"&amp; B59 &amp;"'," &amp; IF(A59="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="15" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="36" t="str">
-        <f t="shared" ref="I60" si="12">IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; "COMMENT '"&amp; B60 &amp;"'," &amp; IF(A60="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="22"/>
-      <c r="I61" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D63" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="36" t="str">
+        <f t="shared" ref="I64" si="8">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E65" s="16">
+        <v>128</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="27" t="s">
-        <v>3</v>
+      <c r="I65" s="36" t="str">
+        <f t="shared" ref="I65:I71" si="9">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="36" t="str">
-        <f t="shared" ref="I66" si="13">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+        <f t="shared" si="9"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="16">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="36" t="str">
-        <f t="shared" ref="I67:I72" si="14">IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+        <f t="shared" ref="I67:I68" si="10">IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" si="10"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B69" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>13</v>
@@ -2701,16 +2743,16 @@
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" si="9"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" s="15" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>13</v>
@@ -2722,247 +2764,698 @@
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
       <c r="I70" s="36" t="str">
-        <f t="shared" ref="I70" si="15">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" ref="I70" si="11">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="22"/>
       <c r="B71" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="16">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
       <c r="I71" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
-      <c r="B72" s="15" t="s">
+      <c r="I72" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="42"/>
+      <c r="D74" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B75" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C75 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="16">
+        <v>128</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="36" t="str">
+        <f t="shared" ref="I77:I79" si="12">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="22"/>
+      <c r="B79" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="36" t="str">
-        <f t="shared" si="14"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="36" t="str">
+        <f t="shared" si="12"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22"/>
-      <c r="I73" s="37" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="22"/>
+      <c r="I80" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C83 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="16">
+        <v>128</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="36" t="str">
+        <f t="shared" ref="I85" si="13">IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; "COMMENT '"&amp; B85 &amp;"'," &amp; IF(A85="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="36" t="str">
+        <f t="shared" ref="I86" si="14">IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; "COMMENT '"&amp; B86 &amp;"'," &amp; IF(A86="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="22"/>
+      <c r="I87" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D89" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B90" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C90 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="36" t="str">
+        <f t="shared" ref="I92" si="15">IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; "COMMENT '"&amp; B92 &amp;"'," &amp; IF(A92="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="16">
+        <v>64</v>
+      </c>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="36" t="str">
+        <f t="shared" ref="I93:I98" si="16">IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; "COMMENT '"&amp; B93 &amp;"'," &amp; IF(A93="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B95" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="16">
+        <v>32</v>
+      </c>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="16">
+        <v>32</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="36" t="str">
+        <f t="shared" ref="I96" si="17">IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; "COMMENT '"&amp; B96 &amp;"'," &amp; IF(A96="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="16">
+        <v>32</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="22"/>
+      <c r="B98" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="22"/>
+      <c r="I99" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B4 B20:B22 B72:B73 B61 B75:B1048576">
-    <cfRule type="expression" dxfId="38" priority="129">
+  <conditionalFormatting sqref="B1:B3 B46:B48 B98:B99 B87 B14 B20:B30 B10 B101:B1048576">
+    <cfRule type="expression" dxfId="44" priority="138">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B15 B18:B19">
-    <cfRule type="expression" dxfId="37" priority="73">
-      <formula>A13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="36" priority="63">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="B39:B41 B44:B45">
+    <cfRule type="expression" dxfId="43" priority="82">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="42" priority="72">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="41" priority="52">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B59">
+    <cfRule type="expression" dxfId="40" priority="50">
+      <formula>A57&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52 B55">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B91 B97 B93:B95">
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" dxfId="35" priority="44">
+      <formula>A100&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="34" priority="42">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B85">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>A92&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>A37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B34">
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>A35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>A72&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B63 B65">
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>A73&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>A71&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>A69&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B77">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>A68&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>A56&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B19">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B33">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>A31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B26 B29">
-    <cfRule type="expression" dxfId="33" priority="40">
-      <formula>A24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="31" priority="38">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B65 B71 B67:B69">
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>A63&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B59">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>A56&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>A62&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>A66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>A60&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="23" priority="26">
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B8">
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>A5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>A12&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>A46&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B37 B39">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>A35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>A47&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>A44&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B51">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>A48&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>A55&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>A52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>A38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B4:B7">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A30&lt;&gt;""</formula>
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="89">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -420,6 +420,21 @@
   </si>
   <si>
     <t>todocategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todohistories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1013,390 +1028,390 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1414,8 +1429,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="55"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="54"/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1709,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1831,465 +1846,491 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
       <c r="I7" s="36" t="str">
-        <f t="shared" ref="I7:I8" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
+        <f t="shared" ref="I7:I9" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="36" t="str">
+        <f>IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="I9" s="37" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="I10" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D11" s="30" t="s">
+    <row r="11" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="52" t="s">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C13" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C12 &amp; "` ("</f>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C13 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16">
-        <v>256</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="36" t="str">
-        <f t="shared" ref="I14:I18" si="1">IF(A14="","","/* ") &amp; "`" &amp; C14 &amp; "` " &amp; D14 &amp; IF(E14&gt;0,"(" &amp; E14 &amp; ") "," ") &amp; IF(F14&lt;&gt;"","NOT NULL ","") &amp; IF(G14="","","DEFAULT '" &amp; G14 &amp; "' ") &amp; "COMMENT '"&amp; B14 &amp;"'," &amp; IF(A14="",""," */")</f>
-        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
+      <c r="I14" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="16">
+        <v>256</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="36" t="str">
+        <f t="shared" ref="I15:I20" si="1">IF(A15="","","/* ") &amp; "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ") &amp; "COMMENT '"&amp; B15 &amp;"'," &amp; IF(A15="",""," */")</f>
+        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="36" t="str">
         <f t="shared" si="1"/>
         <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="36" t="str">
-        <f>IF(A16="","","/* ") &amp; "`" &amp; C16 &amp; "` " &amp; D16 &amp; IF(E16&gt;0,"(" &amp; E16 &amp; ") "," ") &amp; IF(F16&lt;&gt;"","NOT NULL ","") &amp; IF(G16="","","DEFAULT '" &amp; G16 &amp; "' ") &amp; "COMMENT '"&amp; B16 &amp;"'," &amp; IF(A16="",""," */")</f>
-        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
       <c r="H17" s="17"/>
       <c r="I17" s="36" t="str">
+        <f>IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="36" t="str">
+        <f>IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="36" t="str">
         <f t="shared" si="1"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="36" t="str">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="36" t="str">
         <f t="shared" si="1"/>
         <v>`completed` DATETIME COMMENT '完了日',</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="I19" s="37" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="I21" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="H29" s="29"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D23" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+        <v>CREATE TABLE `todohistories` (</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16">
+        <v>256</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="36" t="str">
+        <f t="shared" ref="I26:I27" si="2">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="36" t="str">
+        <f>IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="36" t="str">
+        <f>IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="36" t="str">
+        <f t="shared" ref="I30:I31" si="3">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>`completed` DATETIME COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="I32" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E41" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F41" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G41" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H41" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="51" t="s">
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C32 &amp; "` ("</f>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
         <v>CREATE TABLE `todopages` (</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16">
-        <v>128</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="36" t="str">
-        <f t="shared" ref="I34:I36" si="2">IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; "COMMENT '"&amp; B34 &amp;"'," &amp; IF(A34="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="I37" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D39" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C40 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="36" t="str">
-        <f t="shared" ref="I42" si="3">IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; "COMMENT '"&amp; B42 &amp;"'," &amp; IF(A42="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="36" t="str">
-        <f t="shared" ref="I43" si="4">IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; "COMMENT '"&amp; B43 &amp;"'," &amp; IF(A43="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      <c r="I43" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2306,36 +2347,34 @@
         <v>128</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="36" t="str">
-        <f t="shared" ref="I44:I47" si="5">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
+        <f t="shared" ref="I44:I46" si="4">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+        <f t="shared" si="4"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2354,183 +2393,187 @@
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
-      <c r="B47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="I48" s="37" t="s">
+      <c r="I47" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D50" s="30" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D49" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E49" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F49" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H49" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B51" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C50 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="27" t="s">
-        <v>3</v>
+      <c r="I52" s="36" t="str">
+        <f t="shared" ref="I52" si="5">IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; "COMMENT '"&amp; B52 &amp;"'," &amp; IF(A52="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" s="15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
       <c r="I53" s="36" t="str">
         <f t="shared" ref="I53" si="6">IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; "COMMENT '"&amp; B53 &amp;"'," &amp; IF(A53="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E54" s="16">
+        <v>128</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
       <c r="I54" s="36" t="str">
-        <f t="shared" ref="I54:I58" si="7">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" ref="I54:I57" si="7">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="16">
-        <v>128</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
       <c r="H55" s="17"/>
       <c r="I55" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="22"/>
       <c r="B56" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="B57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2538,99 +2581,95 @@
       <c r="H57" s="17"/>
       <c r="I57" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
-      <c r="B58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="I59" s="37" t="s">
+      <c r="I58" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="30" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D60" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E60" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F60" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G60" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H60" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B62" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
-        <v>CREATE TABLE `events` (</v>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B61" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C61 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
-      <c r="I63" s="27" t="s">
-        <v>3</v>
+      <c r="I63" s="36" t="str">
+        <f t="shared" ref="I63" si="8">IF(A63="","","/* ") &amp; "`" &amp; C63 &amp; "` " &amp; D63 &amp; IF(E63&gt;0,"(" &amp; E63 &amp; ") "," ") &amp; IF(F63&lt;&gt;"","NOT NULL ","") &amp; IF(G63="","","DEFAULT '" &amp; G63 &amp; "' ") &amp; "COMMENT '"&amp; B63 &amp;"'," &amp; IF(A63="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="15" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>16</v>
@@ -2640,8 +2679,8 @@
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="36" t="str">
-        <f t="shared" ref="I64" si="8">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
+        <f t="shared" ref="I64:I68" si="9">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -2649,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>13</v>
@@ -2657,805 +2696,1017 @@
       <c r="E65" s="16">
         <v>128</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="36" t="str">
-        <f t="shared" ref="I65:I71" si="9">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="9"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="36" t="str">
         <f t="shared" si="9"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="22"/>
       <c r="B67" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
       <c r="I67" s="36" t="str">
-        <f t="shared" ref="I67:I68" si="10">IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
       <c r="B68" s="15" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <f t="shared" si="9"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="A69" s="22"/>
+      <c r="I69" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B72" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
+        <v>CREATE TABLE `events` (</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="36" t="str">
+        <f t="shared" ref="I74" si="10">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16">
-        <v>32</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="16">
-        <v>32</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="36" t="str">
-        <f t="shared" ref="I70" si="11">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="22"/>
-      <c r="B71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22"/>
-      <c r="I72" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="42"/>
-      <c r="D74" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31" t="s">
+      <c r="E75" s="16">
+        <v>128</v>
+      </c>
+      <c r="F75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C75 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="36" t="str">
+        <f t="shared" ref="I75:I81" si="11">IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; "COMMENT '"&amp; B75 &amp;"'," &amp; IF(A75="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="27" t="s">
-        <v>3</v>
+      <c r="I76" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B77" s="15" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="16">
-        <v>128</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="36" t="str">
-        <f t="shared" ref="I77:I79" si="12">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I77:I78" si="12">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E78" s="16"/>
-      <c r="F78" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="22"/>
       <c r="B79" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E79" s="16">
+        <v>32</v>
+      </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="16">
+        <v>32</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="36" t="str">
+        <f t="shared" ref="I80" si="13">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="22"/>
+      <c r="B81" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="36" t="str">
+        <f t="shared" si="11"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
-      <c r="I80" s="37" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
+      <c r="I82" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="30" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="42"/>
+      <c r="D84" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E84" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F84" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="G84" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="32" t="s">
+      <c r="H84" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B83" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="33"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C83 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="16">
-        <v>128</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="36" t="str">
-        <f t="shared" ref="I85" si="13">IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; "COMMENT '"&amp; B85 &amp;"'," &amp; IF(A85="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B85" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="36" t="str">
-        <f t="shared" ref="I86" si="14">IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; "COMMENT '"&amp; B86 &amp;"'," &amp; IF(A86="",""," */")</f>
+      <c r="I86" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="16">
+        <v>128</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="36" t="str">
+        <f t="shared" ref="I87:I89" si="14">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="36" t="str">
+        <f t="shared" si="14"/>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="22"/>
-      <c r="I87" s="37" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="22"/>
+      <c r="B89" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="22"/>
+      <c r="I90" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D89" s="30" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E92" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F92" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="G92" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="H92" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C90 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="36" t="str">
-        <f t="shared" ref="I92" si="15">IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; "COMMENT '"&amp; B92 &amp;"'," &amp; IF(A92="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="16">
-        <v>64</v>
-      </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="36" t="str">
-        <f t="shared" ref="I93:I98" si="16">IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; "COMMENT '"&amp; B93 &amp;"'," &amp; IF(A93="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B93" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="33"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C93 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B94" s="15" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+      <c r="I94" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B95" s="15" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="16">
-        <v>32</v>
-      </c>
-      <c r="F95" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G95" s="16"/>
       <c r="H95" s="17"/>
       <c r="I95" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" ref="I95" si="15">IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; "COMMENT '"&amp; B95 &amp;"'," &amp; IF(A95="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B96" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="16">
-        <v>32</v>
-      </c>
-      <c r="F96" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G96" s="16"/>
       <c r="H96" s="17"/>
       <c r="I96" s="36" t="str">
-        <f t="shared" ref="I96" si="17">IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; "COMMENT '"&amp; B96 &amp;"'," &amp; IF(A96="",""," */")</f>
+        <f t="shared" ref="I96" si="16">IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; "COMMENT '"&amp; B96 &amp;"'," &amp; IF(A96="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="22"/>
+      <c r="I97" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D99" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B100" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C100 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B102" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="36" t="str">
+        <f t="shared" ref="I102" si="17">IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; "COMMENT '"&amp; B102 &amp;"'," &amp; IF(A102="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B103" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="16">
+        <v>64</v>
+      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="36" t="str">
+        <f t="shared" ref="I103:I108" si="18">IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; "COMMENT '"&amp; B103 &amp;"'," &amp; IF(A103="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B104" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B105" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="16">
+        <v>32</v>
+      </c>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="16">
+        <v>32</v>
+      </c>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="36" t="str">
+        <f t="shared" ref="I106" si="19">IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; "COMMENT '"&amp; B106 &amp;"'," &amp; IF(A106="",""," */")</f>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="15" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C107" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D107" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E107" s="16">
         <v>32</v>
       </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="36" t="str">
+        <f t="shared" si="18"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="22"/>
-      <c r="B98" s="15" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="22"/>
+      <c r="B108" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D108" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="36" t="str">
+        <f t="shared" si="18"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="22"/>
-      <c r="I99" s="37" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="22"/>
+      <c r="I109" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B46:B48 B98:B99 B87 B14 B20:B30 B10 B101:B1048576">
-    <cfRule type="expression" dxfId="44" priority="138">
+  <conditionalFormatting sqref="B1:B3 B56:B58 B108:B109 B97 B15 B22 B11 B33:B40 B111:B1048576">
+    <cfRule type="expression" dxfId="55" priority="151">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B41 B44:B45">
-    <cfRule type="expression" dxfId="43" priority="82">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="42" priority="72">
+  <conditionalFormatting sqref="B49:B51 B54:B55">
+    <cfRule type="expression" dxfId="54" priority="95">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="41" priority="52">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B59">
-    <cfRule type="expression" dxfId="40" priority="50">
-      <formula>A57&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52 B55">
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="38" priority="48">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="53" priority="85">
+      <formula>A59&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="expression" dxfId="51" priority="63">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62 B65">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B91 B97 B93:B95">
-    <cfRule type="expression" dxfId="36" priority="45">
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="49" priority="61">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:B101 B107 B103:B105">
+    <cfRule type="expression" dxfId="47" priority="58">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="expression" dxfId="46" priority="57">
+      <formula>A110&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="expression" dxfId="45" priority="55">
+      <formula>A106&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B95">
+    <cfRule type="expression" dxfId="44" priority="53">
+      <formula>A92&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="43" priority="52">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="expression" dxfId="42" priority="50">
+      <formula>A102&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B44">
+    <cfRule type="expression" dxfId="39" priority="47">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>A48&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="37" priority="45">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="36" priority="44">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="34" priority="42">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="33" priority="41">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B73 B75">
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>A71&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="31" priority="39">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="expression" dxfId="30" priority="38">
+      <formula>A76&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="expression" dxfId="27" priority="34">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="25" priority="32">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B87">
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="23" priority="30">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>A89&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>A100&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="34" priority="42">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B85">
-    <cfRule type="expression" dxfId="33" priority="40">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>A88&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>A92&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>A37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B34">
-    <cfRule type="expression" dxfId="28" priority="34">
-      <formula>A31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="27" priority="33">
-      <formula>A38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>A35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>A72&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63 B65">
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="20" priority="26">
-      <formula>A73&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>A78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>A66&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>A71&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>A69&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>A19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
     <cfRule type="expression" dxfId="16" priority="21">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" dxfId="15" priority="20">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B77">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>A68&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>A56&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="6" priority="9">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>A11&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A15&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="90">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>BOOLEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1726,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1861,14 +1865,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="G8" s="16">
         <v>0</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="36" t="str">
         <f>IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
-        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="119">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -435,6 +435,122 @@
   </si>
   <si>
     <t>BOOLEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>`id` INT NOT NULL AUTO_INCREMENT ,</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY (`id`) ) ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notecategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>wh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY (`id`) ) ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ノート</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notecategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notecategory_id</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1030,7 +1146,539 @@
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="良い" xfId="7" builtinId="26"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1038,384 +1686,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,8 +1703,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="1"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="77"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="76"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1728,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1776,7 +2046,9 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="42"/>
+      <c r="B4" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
@@ -2281,1438 +2553,1805 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="30" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="32" t="s">
+      <c r="F34" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
-        <v>CREATE TABLE `todopages` (</v>
-      </c>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+        <v>CREATE TABLE `notecategories` (</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="16">
+        <v>128</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="36" t="str">
+        <f t="shared" ref="I37:I39" si="4">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="I40" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D42" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="27" t="s">
-        <v>3</v>
+      <c r="B43" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="16">
-        <v>128</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="36" t="str">
-        <f t="shared" ref="I44:I46" si="4">IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; "COMMENT '"&amp; B44 &amp;"'," &amp; IF(A44="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I44" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
+        <f t="shared" ref="I45:I50" si="5">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
+        <v>`notecategory_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
       <c r="B46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="E46" s="16">
+        <v>64</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="16">
+        <v>32</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="16">
+        <v>32</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+      <c r="B50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="36" t="str">
+        <f t="shared" si="5"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="I47" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D49" s="30" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="22"/>
+      <c r="I51" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E58" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F58" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G58" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H58" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C50 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C59 &amp; "` ("</f>
+        <v>CREATE TABLE `todopages` (</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D60" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E60" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="27" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="36" t="str">
-        <f t="shared" ref="I52" si="5">IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; "COMMENT '"&amp; B52 &amp;"'," &amp; IF(A52="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="36" t="str">
-        <f t="shared" ref="I53" si="6">IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; "COMMENT '"&amp; B53 &amp;"'," &amp; IF(A53="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E61" s="16">
         <v>128</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="36" t="str">
-        <f t="shared" ref="I54:I57" si="7">IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; "COMMENT '"&amp; B54 &amp;"'," &amp; IF(A54="",""," */")</f>
+      <c r="F61" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="36" t="str">
+        <f t="shared" ref="I61:I63" si="6">IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; "COMMENT '"&amp; B61 &amp;"'," &amp; IF(A61="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="22"/>
-      <c r="B56" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
-      <c r="I58" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D60" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B61" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C61 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B62" s="15" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="27" t="s">
-        <v>3</v>
+      <c r="I62" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
       <c r="B63" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="36" t="str">
-        <f t="shared" ref="I63" si="8">IF(A63="","","/* ") &amp; "`" &amp; C63 &amp; "` " &amp; D63 &amp; IF(E63&gt;0,"(" &amp; E63 &amp; ") "," ") &amp; IF(F63&lt;&gt;"","NOT NULL ","") &amp; IF(G63="","","DEFAULT '" &amp; G63 &amp; "' ") &amp; "COMMENT '"&amp; B63 &amp;"'," &amp; IF(A63="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+        <f t="shared" si="6"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="36" t="str">
-        <f t="shared" ref="I64:I68" si="9">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="16">
-        <v>128</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+      <c r="A64" s="22"/>
+      <c r="I64" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
-      <c r="B67" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+      <c r="D66" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C67 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
       <c r="B68" s="15" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
-      <c r="I68" s="36" t="str">
+      <c r="I68" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="36" t="str">
+        <f t="shared" ref="I69" si="7">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="36" t="str">
+        <f t="shared" ref="I70" si="8">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="16">
+        <v>128</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="36" t="str">
+        <f t="shared" ref="I71:I74" si="9">IF(A71="","","/* ") &amp; "`" &amp; C71 &amp; "` " &amp; D71 &amp; IF(E71&gt;0,"(" &amp; E71 &amp; ") "," ") &amp; IF(F71&lt;&gt;"","NOT NULL ","") &amp; IF(G71="","","DEFAULT '" &amp; G71 &amp; "' ") &amp; "COMMENT '"&amp; B71 &amp;"'," &amp; IF(A71="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="16">
+        <v>0</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="36" t="str">
         <f t="shared" si="9"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
-      <c r="I69" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B72" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
-        <v>CREATE TABLE `events` (</v>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="22"/>
       <c r="B73" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="27" t="s">
-        <v>3</v>
+      <c r="I73" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="22"/>
       <c r="B74" s="15" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="36" t="str">
-        <f t="shared" ref="I74" si="10">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
+        <f t="shared" si="9"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="16">
-        <v>128</v>
-      </c>
-      <c r="F75" s="16" t="s">
+      <c r="A75" s="22"/>
+      <c r="I75" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D77" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="36" t="str">
-        <f t="shared" ref="I75:I81" si="11">IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; "COMMENT '"&amp; B75 &amp;"'," &amp; IF(A75="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="36" t="str">
-        <f t="shared" ref="I77:I78" si="12">IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; "COMMENT '"&amp; B77 &amp;"'," &amp; IF(A77="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+      <c r="G77" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B78" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="16">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      <c r="I79" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="16">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="36" t="str">
-        <f t="shared" ref="I80" si="13">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" ref="I80" si="10">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
       <c r="B81" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
+        <f t="shared" ref="I81:I85" si="11">IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; "COMMENT '"&amp; B81 &amp;"'," &amp; IF(A81="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="16">
+        <v>128</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="22"/>
+      <c r="B84" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="36" t="str">
         <f t="shared" si="11"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
-      <c r="I82" s="37" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="22"/>
+      <c r="B85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="22"/>
+      <c r="I86" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="42"/>
-      <c r="D84" s="30" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E88" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F88" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="G88" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H88" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="51" t="s">
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="33"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
+        <v>CREATE TABLE `events` (</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="15" t="s">
+      <c r="C91" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="36" t="str">
+        <f t="shared" ref="I91" si="12">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="C92" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E92" s="16">
         <v>128</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F92" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="36" t="str">
-        <f t="shared" ref="I87:I89" si="14">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16" t="s">
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="36" t="str">
+        <f t="shared" ref="I92:I98" si="13">IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; "COMMENT '"&amp; B92 &amp;"'," &amp; IF(A92="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="22"/>
-      <c r="B89" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="22"/>
-      <c r="I90" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="30"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B93" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C93 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B94" s="15" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="27" t="s">
-        <v>3</v>
+      <c r="I94" s="36" t="str">
+        <f t="shared" ref="I94:I95" si="14">IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; "COMMENT '"&amp; B94 &amp;"'," &amp; IF(A94="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B95" s="15" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="16">
-        <v>128</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="17"/>
       <c r="I95" s="36" t="str">
-        <f t="shared" ref="I95" si="15">IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; "COMMENT '"&amp; B95 &amp;"'," &amp; IF(A95="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="14"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B96" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E96" s="16">
+        <v>32</v>
+      </c>
+      <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="17"/>
       <c r="I96" s="36" t="str">
-        <f t="shared" ref="I96" si="16">IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; "COMMENT '"&amp; B96 &amp;"'," &amp; IF(A96="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" si="13"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="22"/>
-      <c r="I97" s="37" t="s">
+      <c r="B97" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="16">
+        <v>32</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="36" t="str">
+        <f t="shared" ref="I97" si="15">IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; "COMMENT '"&amp; B97 &amp;"'," &amp; IF(A97="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="22"/>
+      <c r="B98" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="22"/>
+      <c r="I99" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D99" s="30" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="42"/>
+      <c r="D101" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E101" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F101" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="G101" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H101" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I99" s="30"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C100 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="36" t="str">
-        <f t="shared" ref="I102" si="17">IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; "COMMENT '"&amp; B102 &amp;"'," &amp; IF(A102="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C102 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B103" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="16">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
-      <c r="I103" s="36" t="str">
-        <f t="shared" ref="I103:I108" si="18">IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; "COMMENT '"&amp; B103 &amp;"'," &amp; IF(A103="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      <c r="I103" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B104" s="15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E104" s="16">
+        <v>128</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G104" s="16"/>
       <c r="H104" s="17"/>
       <c r="I104" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I104:I106" si="16">IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; "COMMENT '"&amp; B104 &amp;"'," &amp; IF(A104="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B105" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="16">
-        <v>32</v>
-      </c>
-      <c r="F105" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G105" s="16"/>
       <c r="H105" s="17"/>
       <c r="I105" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" si="16"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="22"/>
       <c r="B106" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="16">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
       <c r="H106" s="17"/>
       <c r="I106" s="36" t="str">
-        <f t="shared" ref="I106" si="19">IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; "COMMENT '"&amp; B106 &amp;"'," &amp; IF(A106="",""," */")</f>
+        <f t="shared" si="16"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="22"/>
+      <c r="I107" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B111" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B112" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="16">
+        <v>128</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="36" t="str">
+        <f t="shared" ref="I112" si="17">IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; "COMMENT '"&amp; B112 &amp;"'," &amp; IF(A112="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B113" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="36" t="str">
+        <f t="shared" ref="I113" si="18">IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="22"/>
+      <c r="I114" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D116" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B117" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C117 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="36" t="str">
+        <f t="shared" ref="I119" si="19">IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; "COMMENT '"&amp; B119 &amp;"'," &amp; IF(A119="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="16">
+        <v>64</v>
+      </c>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="36" t="str">
+        <f t="shared" ref="I120:I125" si="20">IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; "COMMENT '"&amp; B120 &amp;"'," &amp; IF(A120="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="36" t="str">
+        <f t="shared" si="20"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="16">
+        <v>32</v>
+      </c>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="36" t="str">
+        <f t="shared" si="20"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="16">
+        <v>32</v>
+      </c>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="36" t="str">
+        <f t="shared" ref="I123" si="21">IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; "COMMENT '"&amp; B123 &amp;"'," &amp; IF(A123="",""," */")</f>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="15" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C124" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D124" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E124" s="16">
         <v>32</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="36" t="str">
-        <f t="shared" si="18"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="36" t="str">
+        <f t="shared" si="20"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="22"/>
-      <c r="B108" s="15" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="22"/>
+      <c r="B125" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C125" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D125" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="36" t="str">
-        <f t="shared" si="18"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="36" t="str">
+        <f t="shared" si="20"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="22"/>
-      <c r="I109" s="37" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="22"/>
+      <c r="I126" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B56:B58 B108:B109 B97 B15 B22 B11 B33:B40 B111:B1048576">
-    <cfRule type="expression" dxfId="55" priority="151">
+  <conditionalFormatting sqref="B1:B3 B73:B75 B125:B126 B114 B15 B22 B11 B33 B41 B52:B57 B128:B1048576">
+    <cfRule type="expression" dxfId="64" priority="162">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B51 B54:B55">
-    <cfRule type="expression" dxfId="54" priority="95">
+  <conditionalFormatting sqref="B66:B68 B71:B72">
+    <cfRule type="expression" dxfId="63" priority="106">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="expression" dxfId="62" priority="96">
+      <formula>A76&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="61" priority="76">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B86">
+    <cfRule type="expression" dxfId="60" priority="74">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B79 B82">
+    <cfRule type="expression" dxfId="59" priority="73">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" dxfId="58" priority="72">
+      <formula>A87&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" dxfId="57" priority="71">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:B118 B124 B120:B122">
+    <cfRule type="expression" dxfId="56" priority="69">
+      <formula>A116&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="expression" dxfId="55" priority="68">
+      <formula>A127&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>A123&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:B112">
+    <cfRule type="expression" dxfId="53" priority="64">
+      <formula>A109&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="expression" dxfId="52" priority="63">
+      <formula>A115&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>A119&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="expression" dxfId="50" priority="60">
+      <formula>A113&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B61">
+    <cfRule type="expression" dxfId="48" priority="58">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="47" priority="57">
+      <formula>A65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="46" priority="56">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="45" priority="55">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="44" priority="54">
+      <formula>A69&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="42" priority="52">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B90 B92">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" dxfId="40" priority="50">
+      <formula>A100&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>A93&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>A94&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" dxfId="35" priority="44">
+      <formula>A97&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107">
+    <cfRule type="expression" dxfId="34" priority="43">
+      <formula>A107&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:B104">
+    <cfRule type="expression" dxfId="33" priority="42">
+      <formula>A101&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="expression" dxfId="32" priority="41">
+      <formula>A108&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="expression" dxfId="31" priority="40">
+      <formula>A105&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="expression" dxfId="30" priority="39">
+      <formula>A106&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="29" priority="38">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula>A95&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="27" priority="34">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>A19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="expression" dxfId="25" priority="32">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>A17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="21" priority="26">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>A16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>A34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42 B46:B48 B44">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="53" priority="85">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="52" priority="65">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
-    <cfRule type="expression" dxfId="51" priority="63">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62 B65">
-    <cfRule type="expression" dxfId="50" priority="62">
-      <formula>A60&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="49" priority="61">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99:B101 B107 B103:B105">
-    <cfRule type="expression" dxfId="47" priority="58">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
-    <cfRule type="expression" dxfId="46" priority="57">
-      <formula>A110&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="45" priority="55">
-      <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B95">
-    <cfRule type="expression" dxfId="44" priority="53">
-      <formula>A92&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="43" priority="52">
-      <formula>A98&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="expression" dxfId="42" priority="50">
-      <formula>A102&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>A47&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B44">
-    <cfRule type="expression" dxfId="39" priority="47">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="38" priority="46">
-      <formula>A48&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="36" priority="44">
-      <formula>A46&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="35" priority="43">
-      <formula>A52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="34" priority="42">
-      <formula>A63&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="33" priority="41">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B73 B75">
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>A71&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="31" priority="39">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>A76&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="28" priority="36">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="26" priority="33">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B87">
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>A84&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="23" priority="30">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="22" priority="29">
-      <formula>A88&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>A89&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="19" priority="26">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="18" priority="23">
-      <formula>A66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="17" priority="22">
-      <formula>A19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="16" priority="21">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>A17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>A18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>A25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>A29&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="125">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -555,6 +555,30 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memos</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategory_id</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -827,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,6 +894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -975,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,6 +1163,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="5" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,7 +1230,98 @@
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="良い" xfId="7" builtinId="26"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1703,8 +1878,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="77"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="76"/>
+    <tableColumn id="1" name="No." dataDxfId="90"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="89"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1998,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2555,7 +2730,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="42" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>4</v>
@@ -2564,10 +2739,10 @@
         <v>5</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>18</v>
@@ -2576,10 +2751,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -2588,15 +2763,15 @@
       <c r="H35" s="35"/>
       <c r="I35" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
-        <v>CREATE TABLE `notecategories` (</v>
+        <v>CREATE TABLE `memocategories` (</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>6</v>
@@ -2608,7 +2783,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
       <c r="I36" s="27" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2616,16 +2791,16 @@
         <v>15</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16">
         <v>128</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
@@ -2636,17 +2811,17 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
@@ -2678,7 +2853,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="I40" s="37" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2689,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>18</v>
@@ -2701,10 +2876,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="52" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="34"/>
@@ -2713,15 +2888,15 @@
       <c r="H43" s="35"/>
       <c r="I43" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
+        <v>CREATE TABLE `memos` (</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>6</v>
@@ -2733,7 +2908,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="27" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2741,10 +2916,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -2752,7 +2927,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="36" t="str">
         <f t="shared" ref="I45:I50" si="5">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
-        <v>`notecategory_id` INT COMMENT '分類',</v>
+        <v>`memocategory_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2760,16 +2935,16 @@
         <v>15</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16">
         <v>64</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
@@ -2780,13 +2955,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2799,13 +2974,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16">
         <v>32</v>
@@ -2820,13 +2995,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16">
         <v>32</v>
@@ -2845,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -2862,325 +3037,352 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="I51" s="37" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="55"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="62" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
+        <v>CREATE TABLE `notecategories` (</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="64">
+        <v>128</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="66" t="str">
+        <f t="shared" ref="I56:I58" si="6">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="64"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B59" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C59 &amp; "` ("</f>
-        <v>CREATE TABLE `todopages` (</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="16">
-        <v>128</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="36" t="str">
-        <f t="shared" ref="I61:I63" si="6">IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; "COMMENT '"&amp; B61 &amp;"'," &amp; IF(A61="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
-      <c r="B63" s="15" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C58" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D58" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="36" t="str">
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="66" t="str">
         <f t="shared" si="6"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="55"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="62" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="I64" s="37" t="s">
-        <v>2</v>
+      <c r="B64" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="66" t="str">
+        <f t="shared" ref="I64:I69" si="7">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <v>`notecategory_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="64">
+        <v>64</v>
+      </c>
+      <c r="F65" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D66" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C67 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
+      <c r="B66" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="64">
+        <v>32</v>
+      </c>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="27" t="s">
-        <v>3</v>
+      <c r="B68" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="64">
+        <v>32</v>
+      </c>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="36" t="str">
-        <f t="shared" ref="I69" si="7">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
+      <c r="A69" s="22"/>
+      <c r="B69" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="36" t="str">
-        <f t="shared" ref="I70" si="8">IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="16">
-        <v>128</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="36" t="str">
-        <f t="shared" ref="I71:I74" si="9">IF(A71="","","/* ") &amp; "`" &amp; C71 &amp; "` " &amp; D71 &amp; IF(E71&gt;0,"(" &amp; E71 &amp; ") "," ") &amp; IF(F71&lt;&gt;"","NOT NULL ","") &amp; IF(G71="","","DEFAULT '" &amp; G71 &amp; "' ") &amp; "COMMENT '"&amp; B71 &amp;"'," &amp; IF(A71="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" s="16">
-        <v>0</v>
-      </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22"/>
-      <c r="B73" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22"/>
-      <c r="B74" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22"/>
-      <c r="I75" s="37" t="s">
-        <v>2</v>
+      <c r="A70" s="22"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="70" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="D77" s="30" t="s">
         <v>4</v>
       </c>
@@ -3200,10 +3402,10 @@
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B78" s="51" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="34"/>
@@ -3212,7 +3414,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
+        <v>CREATE TABLE `todopages` (</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -3237,768 +3439,769 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E80" s="16">
+        <v>128</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="36" t="str">
-        <f t="shared" ref="I80" si="10">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+        <f t="shared" ref="I80:I82" si="8">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B81" s="15" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="F81" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
-        <f t="shared" ref="I81:I85" si="11">IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; "COMMENT '"&amp; B81 &amp;"'," &amp; IF(A81="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" si="8"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
       <c r="B82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="16">
-        <v>128</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <f t="shared" si="8"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="22"/>
+      <c r="I83" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D85" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C86 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="36" t="str">
+        <f t="shared" ref="I88" si="9">IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; "COMMENT '"&amp; B88 &amp;"'," &amp; IF(A88="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="36" t="str">
+        <f t="shared" ref="I89" si="10">IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; "COMMENT '"&amp; B89 &amp;"'," &amp; IF(A89="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="16">
+        <v>128</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="36" t="str">
+        <f t="shared" ref="I90:I93" si="11">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D91" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" s="16">
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" s="16">
         <v>0</v>
       </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="36" t="str">
+      <c r="H91" s="17"/>
+      <c r="I91" s="36" t="str">
         <f t="shared" si="11"/>
         <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="22"/>
-      <c r="B84" s="15" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="22"/>
+      <c r="B92" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D92" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="22"/>
-      <c r="B85" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="22"/>
-      <c r="I86" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
-        <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="36" t="str">
-        <f t="shared" ref="I91" si="12">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="16">
-        <v>128</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="17"/>
       <c r="I92" s="36" t="str">
-        <f t="shared" ref="I92:I98" si="13">IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; "COMMENT '"&amp; B92 &amp;"'," &amp; IF(A92="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="11"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="22"/>
       <c r="B93" s="15" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E93" s="16"/>
-      <c r="F93" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
       <c r="I93" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <f t="shared" si="11"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="36" t="str">
-        <f t="shared" ref="I94:I95" si="14">IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; "COMMENT '"&amp; B94 &amp;"'," &amp; IF(A94="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+      <c r="A94" s="22"/>
+      <c r="I94" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="16">
-        <v>32</v>
-      </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="16">
-        <v>32</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="36" t="str">
-        <f t="shared" ref="I97" si="15">IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; "COMMENT '"&amp; B97 &amp;"'," &amp; IF(A97="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      <c r="D96" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C97 &amp; "` ("</f>
+        <v>CREATE TABLE `histories` (</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="22"/>
       <c r="B98" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="17"/>
-      <c r="I98" s="36" t="str">
+      <c r="I98" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="36" t="str">
+        <f t="shared" ref="I99" si="12">IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; "COMMENT '"&amp; B99 &amp;"'," &amp; IF(A99="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="36" t="str">
+        <f t="shared" ref="I100:I104" si="13">IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; "COMMENT '"&amp; B100 &amp;"'," &amp; IF(A100="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="16">
+        <v>128</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="22"/>
-      <c r="I99" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="42"/>
-      <c r="D101" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C102 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B102" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="16">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17"/>
+      <c r="I102" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="22"/>
       <c r="B103" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
-      <c r="I103" s="27" t="s">
-        <v>3</v>
+      <c r="I103" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="22"/>
       <c r="B104" s="15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="16">
-        <v>128</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="17"/>
       <c r="I104" s="36" t="str">
-        <f t="shared" ref="I104:I106" si="16">IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; "COMMENT '"&amp; B104 &amp;"'," &amp; IF(A104="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="13"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="15" t="s">
+      <c r="A105" s="22"/>
+      <c r="I105" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
+        <v>CREATE TABLE `events` (</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="22"/>
-      <c r="B106" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="22"/>
-      <c r="I107" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="30"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B110" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="33"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="36" t="str">
+        <f t="shared" ref="I110" si="14">IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; "COMMENT '"&amp; B110 &amp;"'," &amp; IF(A110="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B111" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E111" s="16">
+        <v>128</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G111" s="16"/>
       <c r="H111" s="17"/>
-      <c r="I111" s="27" t="s">
-        <v>3</v>
+      <c r="I111" s="36" t="str">
+        <f t="shared" ref="I111:I117" si="15">IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; "COMMENT '"&amp; B111 &amp;"'," &amp; IF(A111="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="16">
-        <v>128</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E112" s="16"/>
       <c r="F112" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="17"/>
       <c r="I112" s="36" t="str">
-        <f t="shared" ref="I112" si="17">IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; "COMMENT '"&amp; B112 &amp;"'," &amp; IF(A112="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="15"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B113" s="15" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E113" s="16"/>
-      <c r="F113" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="17"/>
       <c r="I113" s="36" t="str">
-        <f t="shared" ref="I113" si="18">IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" ref="I113:I114" si="16">IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="22"/>
-      <c r="I114" s="37" t="s">
+      <c r="B114" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="16">
+        <v>32</v>
+      </c>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="36" t="str">
+        <f t="shared" si="15"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="16">
+        <v>32</v>
+      </c>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="36" t="str">
+        <f t="shared" ref="I116" si="17">IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; "COMMENT '"&amp; B116 &amp;"'," &amp; IF(A116="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="22"/>
+      <c r="B117" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="36" t="str">
+        <f t="shared" si="15"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="22"/>
+      <c r="I118" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D116" s="30" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="42"/>
+      <c r="D120" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E120" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="F120" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="31" t="s">
+      <c r="G120" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="32" t="s">
+      <c r="H120" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B117" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D117" s="33"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C117 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="36" t="str">
-        <f t="shared" ref="I119" si="19">IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; "COMMENT '"&amp; B119 &amp;"'," &amp; IF(A119="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="16">
-        <v>64</v>
-      </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="36" t="str">
-        <f t="shared" ref="I120:I125" si="20">IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; "COMMENT '"&amp; B120 &amp;"'," &amp; IF(A120="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B121" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C121 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B122" s="15" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="16">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
       <c r="H122" s="17"/>
-      <c r="I122" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      <c r="I122" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B123" s="15" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="16">
-        <v>32</v>
-      </c>
-      <c r="F123" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G123" s="16"/>
       <c r="H123" s="17"/>
       <c r="I123" s="36" t="str">
-        <f t="shared" ref="I123" si="21">IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; "COMMENT '"&amp; B123 &amp;"'," &amp; IF(A123="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" ref="I123:I125" si="18">IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; "COMMENT '"&amp; B123 &amp;"'," &amp; IF(A123="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B124" s="15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="16">
-        <v>32</v>
-      </c>
-      <c r="F124" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
       <c r="I124" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" si="18"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -4017,7 +4220,7 @@
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
       <c r="I125" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
@@ -4027,330 +4230,701 @@
         <v>2</v>
       </c>
     </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B128" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B129" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="33"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C129 &amp; "` ("</f>
+        <v>CREATE TABLE `categories` (</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="16">
+        <v>128</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="16"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="36" t="str">
+        <f t="shared" ref="I131" si="19">IF(A131="","","/* ") &amp; "`" &amp; C131 &amp; "` " &amp; D131 &amp; IF(E131&gt;0,"(" &amp; E131 &amp; ") "," ") &amp; IF(F131&lt;&gt;"","NOT NULL ","") &amp; IF(G131="","","DEFAULT '" &amp; G131 &amp; "' ") &amp; "COMMENT '"&amp; B131 &amp;"'," &amp; IF(A131="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="36" t="str">
+        <f t="shared" ref="I132" si="20">IF(A132="","","/* ") &amp; "`" &amp; C132 &amp; "` " &amp; D132 &amp; IF(E132&gt;0,"(" &amp; E132 &amp; ") "," ") &amp; IF(F132&lt;&gt;"","NOT NULL ","") &amp; IF(G132="","","DEFAULT '" &amp; G132 &amp; "' ") &amp; "COMMENT '"&amp; B132 &amp;"'," &amp; IF(A132="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="22"/>
+      <c r="I133" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D135" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B136" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="33"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
+        <v>CREATE TABLE `notes` (</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B137" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B138" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="36" t="str">
+        <f t="shared" ref="I138" si="21">IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; "COMMENT '"&amp; B138 &amp;"'," &amp; IF(A138="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="16">
+        <v>64</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="36" t="str">
+        <f t="shared" ref="I139:I144" si="22">IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; "COMMENT '"&amp; B139 &amp;"'," &amp; IF(A139="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="16">
+        <v>32</v>
+      </c>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="16">
+        <v>32</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="36" t="str">
+        <f t="shared" ref="I142" si="23">IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; "COMMENT '"&amp; B142 &amp;"'," &amp; IF(A142="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B143" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="16">
+        <v>32</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" s="22"/>
+      <c r="B144" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" s="22"/>
+      <c r="I145" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B73:B75 B125:B126 B114 B15 B22 B11 B33 B41 B52:B57 B128:B1048576">
-    <cfRule type="expression" dxfId="64" priority="162">
+  <conditionalFormatting sqref="B1:B3 B92:B94 B144:B145 B133 B15 B22 B11 B33 B60 B71:B76 B147:B1048576">
+    <cfRule type="expression" dxfId="88" priority="174">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B68 B71:B72">
-    <cfRule type="expression" dxfId="63" priority="106">
-      <formula>A66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="62" priority="96">
-      <formula>A76&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="61" priority="76">
-      <formula>A70&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B86">
-    <cfRule type="expression" dxfId="60" priority="74">
+  <conditionalFormatting sqref="B85:B87 B90:B91">
+    <cfRule type="expression" dxfId="87" priority="118">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="86" priority="108">
+      <formula>A95&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" dxfId="85" priority="88">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:B105">
+    <cfRule type="expression" dxfId="84" priority="86">
+      <formula>A103&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B98 B101">
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="expression" dxfId="82" priority="84">
+      <formula>A106&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" dxfId="81" priority="83">
+      <formula>A100&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:B137 B143 B139:B141">
+    <cfRule type="expression" dxfId="80" priority="81">
+      <formula>A135&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146">
+    <cfRule type="expression" dxfId="79" priority="80">
+      <formula>A146&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142">
+    <cfRule type="expression" dxfId="78" priority="78">
+      <formula>A142&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B131">
+    <cfRule type="expression" dxfId="77" priority="76">
+      <formula>A128&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
+    <cfRule type="expression" dxfId="76" priority="75">
+      <formula>A134&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="expression" dxfId="75" priority="73">
+      <formula>A138&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="expression" dxfId="74" priority="72">
+      <formula>A132&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="73" priority="71">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B80">
+    <cfRule type="expression" dxfId="72" priority="70">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" dxfId="71" priority="69">
       <formula>A84&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B79 B82">
-    <cfRule type="expression" dxfId="59" priority="73">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="58" priority="72">
-      <formula>A87&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="57" priority="71">
+    <cfRule type="expression" dxfId="70" priority="68">
       <formula>A81&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B116:B118 B124 B120:B122">
-    <cfRule type="expression" dxfId="56" priority="69">
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="69" priority="67">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="68" priority="66">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="67" priority="65">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="expression" dxfId="66" priority="64">
+      <formula>A118&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:B109 B111">
+    <cfRule type="expression" dxfId="65" priority="63">
+      <formula>A107&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="expression" dxfId="64" priority="62">
+      <formula>A119&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="expression" dxfId="63" priority="61">
+      <formula>A112&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117">
+    <cfRule type="expression" dxfId="62" priority="60">
+      <formula>A117&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="expression" dxfId="61" priority="59">
+      <formula>A115&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="expression" dxfId="60" priority="57">
+      <formula>A113&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="expression" dxfId="59" priority="56">
       <formula>A116&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="expression" dxfId="58" priority="55">
+      <formula>A126&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:B123">
+    <cfRule type="expression" dxfId="57" priority="54">
+      <formula>A120&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="55" priority="68">
+    <cfRule type="expression" dxfId="56" priority="53">
       <formula>A127&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>A123&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109:B112">
-    <cfRule type="expression" dxfId="53" priority="64">
-      <formula>A109&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="expression" dxfId="52" priority="63">
-      <formula>A115&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>A119&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="expression" dxfId="50" priority="60">
-      <formula>A113&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="expression" dxfId="55" priority="52">
+      <formula>A124&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="expression" dxfId="54" priority="51">
+      <formula>A125&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="expression" dxfId="53" priority="50">
+      <formula>A110&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
+    <cfRule type="expression" dxfId="52" priority="49">
+      <formula>A114&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102">
+    <cfRule type="expression" dxfId="51" priority="46">
+      <formula>A102&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="50" priority="45">
+      <formula>A19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="expression" dxfId="49" priority="44">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula>A17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="46" priority="40">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="44" priority="37">
+      <formula>A16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="42" priority="33">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="41" priority="30">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="40" priority="29">
+      <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="expression" dxfId="39" priority="28">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="38" priority="27">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="37" priority="26">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="36" priority="25">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="35" priority="24">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="34" priority="23">
+      <formula>A59&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:B56">
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>A55&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="32" priority="21">
+      <formula>A57&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="31" priority="20">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="30" priority="19">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>A69&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61 B65:B67 B63">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="26" priority="15">
+      <formula>A68&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B61">
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>A58&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="47" priority="57">
-      <formula>A65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="46" priority="56">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>A62&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="45" priority="55">
-      <formula>A63&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="44" priority="54">
-      <formula>A69&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="43" priority="53">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="42" priority="52">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B90 B92">
-    <cfRule type="expression" dxfId="41" priority="51">
-      <formula>A88&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" dxfId="40" priority="50">
-      <formula>A100&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>A93&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="38" priority="48">
-      <formula>A98&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>A94&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>A97&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="34" priority="43">
-      <formula>A107&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B104">
-    <cfRule type="expression" dxfId="33" priority="42">
-      <formula>A101&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
-    <cfRule type="expression" dxfId="32" priority="41">
-      <formula>A108&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>A105&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="28" priority="37">
-      <formula>A95&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="26" priority="33">
-      <formula>A19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>A17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>A18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>A25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>A29&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B41 B52">
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>A34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>A50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="107">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -442,143 +442,74 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>todo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memos</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>memocategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>eventdate</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>NN</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>Def</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>`id` INT NOT NULL AUTO_INCREMENT ,</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY (`id`) ) ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>notecategories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>テキスト</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>xyz</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>wh</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>created</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY (`id`) ) ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ノート</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>notecategory</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>notecategory_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>memocategory</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>memocategories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>メモ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>memos</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>memocategory_id</t>
+    <t>DATE</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>recordcategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>recordcategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>recordcategory_id</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -851,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1005,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,60 +1088,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="5" xfId="7" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,21 +1101,7 @@
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="良い" xfId="7" builtinId="26"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <fill>
         <patternFill>
@@ -1878,8 +1735,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="90"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="89"/>
+    <tableColumn id="1" name="No." dataDxfId="88"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="87"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -2173,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2222,7 +2079,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="42" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>4</v>
@@ -2730,7 +2587,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="42" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>4</v>
@@ -2751,10 +2608,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="52" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -2876,10 +2733,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="52" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="34"/>
@@ -2916,7 +2773,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>16</v>
@@ -3041,739 +2898,705 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="55"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62" t="str">
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
-        <v>CREATE TABLE `notecategories` (</v>
+        <v>CREATE TABLE `recordcategories` (</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="63" t="s">
+      <c r="B55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="62" t="s">
-        <v>94</v>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="64">
+      <c r="C56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="16">
         <v>128</v>
       </c>
-      <c r="F56" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="66" t="str">
-        <f t="shared" ref="I56:I58" si="6">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
+      <c r="F56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="36" t="str">
+        <f t="shared" ref="I56" si="6">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="64"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66" t="str">
-        <f t="shared" si="6"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      <c r="B57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="36" t="str">
+        <f>IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="66" t="str">
-        <f t="shared" si="6"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="36" t="str">
+        <f t="shared" ref="I58" si="7">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70" t="s">
+      <c r="I59" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D61" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+        <v>CREATE TABLE `records` (</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="36" t="str">
+        <f>IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <v>`recordcategory_id` INT COMMENT 'カテゴリ',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="54"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="55"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="62" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="66" t="str">
-        <f t="shared" ref="I64:I69" si="7">IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
-        <v>`notecategory_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="63" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="36" t="str">
+        <f t="shared" ref="I65" si="8">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <v>`eventdate` DATE NOT NULL COMMENT '日付',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="64">
-        <v>64</v>
-      </c>
-      <c r="F65" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="66" t="str">
-        <f t="shared" si="7"/>
-        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66" t="str">
-        <f t="shared" si="7"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+      <c r="C66" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="16">
+        <v>512</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="36" t="str">
+        <f t="shared" ref="I66" si="9">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <v>`title` VARCHAR(512) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="64">
-        <v>32</v>
-      </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="66" t="str">
-        <f t="shared" si="7"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      <c r="B67" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="36" t="str">
+        <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="64">
-        <v>32</v>
-      </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="66" t="str">
-        <f t="shared" si="7"/>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      <c r="B68" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="36" t="str">
+        <f>IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="66" t="str">
-        <f t="shared" si="7"/>
+      <c r="C69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="36" t="str">
+        <f t="shared" ref="I69" si="10">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="42" t="s">
+      <c r="I70" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="43"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D78" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E78" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F78" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G78" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H78" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B78" s="51" t="s">
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C79" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
         <v>CREATE TABLE `todopages` (</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="16">
-        <v>128</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="36" t="str">
-        <f t="shared" ref="I80:I82" si="8">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I80" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B81" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E81" s="16">
+        <v>128</v>
+      </c>
       <c r="F81" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
+        <f t="shared" ref="I81:I83" si="11">IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; "COMMENT '"&amp; B81 &amp;"'," &amp; IF(A81="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
       <c r="B82" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="11"/>
+        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
-      <c r="I83" s="37" t="s">
+      <c r="B83" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="22"/>
+      <c r="I84" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D85" s="30" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D86" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E86" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F86" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G86" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="32" t="s">
+      <c r="H86" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B86" s="51" t="s">
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B87" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C87" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C86 &amp; "` ("</f>
+      <c r="D87" s="33"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C87 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B88" s="15" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="36" t="str">
-        <f t="shared" ref="I88" si="9">IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; "COMMENT '"&amp; B88 &amp;"'," &amp; IF(A88="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
+      <c r="I88" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B89" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
       <c r="I89" s="36" t="str">
-        <f t="shared" ref="I89" si="10">IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; "COMMENT '"&amp; B89 &amp;"'," &amp; IF(A89="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" ref="I89" si="12">IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; "COMMENT '"&amp; B89 &amp;"'," &amp; IF(A89="",""," */")</f>
+        <v>`todopage_id` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B90" s="15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E90" s="16"/>
       <c r="F90" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
       <c r="I90" s="36" t="str">
-        <f t="shared" ref="I90:I93" si="11">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I90" si="13">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B91" s="15" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E91" s="16">
+        <v>128</v>
+      </c>
       <c r="F91" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G91" s="16">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G91" s="16"/>
       <c r="H91" s="17"/>
       <c r="I91" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+        <f t="shared" ref="I91:I94" si="14">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="22"/>
       <c r="B92" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="16">
         <v>0</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
       <c r="H92" s="17"/>
       <c r="I92" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="14"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="22"/>
       <c r="B93" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
       <c r="I93" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f t="shared" si="14"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="22"/>
-      <c r="I94" s="37" t="s">
+      <c r="B94" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="22"/>
+      <c r="I95" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D96" s="30" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D97" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E97" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F97" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="G97" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="H97" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="30"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B97" s="51" t="s">
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C98" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C97 &amp; "` ("</f>
+      <c r="D98" s="33"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
         <v>CREATE TABLE `histories` (</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B99" s="15" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="36" t="str">
-        <f t="shared" ref="I99" si="12">IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; "COMMENT '"&amp; B99 &amp;"'," &amp; IF(A99="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
+      <c r="I99" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B100" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>16</v>
@@ -3783,286 +3606,284 @@
       <c r="G100" s="16"/>
       <c r="H100" s="17"/>
       <c r="I100" s="36" t="str">
-        <f t="shared" ref="I100:I104" si="13">IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; "COMMENT '"&amp; B100 &amp;"'," &amp; IF(A100="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
+        <f t="shared" ref="I100" si="15">IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; "COMMENT '"&amp; B100 &amp;"'," &amp; IF(A100="",""," */")</f>
+        <v>`pageid` INT COMMENT 'page',</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B101" s="15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="17"/>
       <c r="I101" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
+        <f t="shared" ref="I101:I105" si="16">IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; "COMMENT '"&amp; B101 &amp;"'," &amp; IF(A101="",""," */")</f>
+        <v>`position` INT COMMENT 'position',</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B102" s="15" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G102" s="16">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E102" s="16">
+        <v>128</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="17"/>
       <c r="I102" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
+        <f t="shared" si="16"/>
+        <v>`name` VARCHAR(128) COMMENT '名前',</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="22"/>
       <c r="B103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="16">
         <v>0</v>
       </c>
-      <c r="C103" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
       <c r="H103" s="17"/>
       <c r="I103" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="16"/>
+        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="22"/>
       <c r="B104" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="17"/>
       <c r="I104" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f t="shared" si="16"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="22"/>
-      <c r="I105" s="37" t="s">
+      <c r="B105" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="22"/>
+      <c r="I106" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="42" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D108" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E108" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F108" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G107" s="31" t="s">
+      <c r="G108" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="32" t="s">
+      <c r="H108" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B108" s="51" t="s">
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C109" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
+      <c r="D109" s="33"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
         <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B110" s="15" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="17"/>
-      <c r="I110" s="36" t="str">
-        <f t="shared" ref="I110" si="14">IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; "COMMENT '"&amp; B110 &amp;"'," &amp; IF(A110="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
+      <c r="I110" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B111" s="15" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="16">
-        <v>128</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="16"/>
       <c r="H111" s="17"/>
       <c r="I111" s="36" t="str">
-        <f t="shared" ref="I111:I117" si="15">IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; "COMMENT '"&amp; B111 &amp;"'," &amp; IF(A111="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I111" si="17">IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; "COMMENT '"&amp; B111 &amp;"'," &amp; IF(A111="",""," */")</f>
+        <v>`calendar_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E112" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E112" s="16">
+        <v>128</v>
+      </c>
       <c r="F112" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="17"/>
       <c r="I112" s="36" t="str">
-        <f t="shared" si="15"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <f t="shared" ref="I112:I118" si="18">IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; "COMMENT '"&amp; B112 &amp;"'," &amp; IF(A112="",""," */")</f>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B113" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
+      <c r="F113" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G113" s="16"/>
       <c r="H113" s="17"/>
       <c r="I113" s="36" t="str">
-        <f t="shared" ref="I113:I114" si="16">IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
+        <f t="shared" si="18"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B114" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
       <c r="H114" s="17"/>
       <c r="I114" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <f t="shared" ref="I114:I115" si="19">IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; "COMMENT '"&amp; B114 &amp;"'," &amp; IF(A114="",""," */")</f>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B115" s="15" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="16">
-        <v>32</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
       <c r="H115" s="17"/>
       <c r="I115" s="36" t="str">
-        <f t="shared" si="15"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" si="19"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B116" s="15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>13</v>
@@ -4074,411 +3895,411 @@
       <c r="G116" s="16"/>
       <c r="H116" s="17"/>
       <c r="I116" s="36" t="str">
-        <f t="shared" ref="I116" si="17">IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; "COMMENT '"&amp; B116 &amp;"'," &amp; IF(A116="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" si="18"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="22"/>
       <c r="B117" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E117" s="16">
+        <v>32</v>
+      </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
       <c r="H117" s="17"/>
       <c r="I117" s="36" t="str">
-        <f t="shared" si="15"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" ref="I117" si="20">IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; "COMMENT '"&amp; B117 &amp;"'," &amp; IF(A117="",""," */")</f>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="22"/>
-      <c r="I118" s="37" t="s">
+      <c r="B118" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="22"/>
+      <c r="I119" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="42"/>
-      <c r="D120" s="30" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="42"/>
+      <c r="D121" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E121" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F121" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G120" s="31" t="s">
+      <c r="G121" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H120" s="32" t="s">
+      <c r="H121" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I120" s="30"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B121" s="51" t="s">
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B122" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C122" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C121 &amp; "` ("</f>
+      <c r="D122" s="33"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C122 &amp; "` ("</f>
         <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B123" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="16">
-        <v>128</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="16"/>
       <c r="G123" s="16"/>
       <c r="H123" s="17"/>
-      <c r="I123" s="36" t="str">
-        <f t="shared" ref="I123:I125" si="18">IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; "COMMENT '"&amp; B123 &amp;"'," &amp; IF(A123="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I123" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B124" s="15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E124" s="16">
+        <v>128</v>
+      </c>
       <c r="F124" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
       <c r="I124" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" ref="I124:I126" si="21">IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; "COMMENT '"&amp; B124 &amp;"'," &amp; IF(A124="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="22"/>
       <c r="B125" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
+      <c r="F125" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
       <c r="I125" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="21"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="22"/>
-      <c r="I126" s="37" t="s">
+      <c r="B126" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="22"/>
+      <c r="I127" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B128" s="42" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B129" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D129" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E129" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F129" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="31" t="s">
+      <c r="G129" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H128" s="32" t="s">
+      <c r="H129" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B129" s="51" t="s">
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B130" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C130" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="33"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C129 &amp; "` ("</f>
+      <c r="D130" s="33"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C130 &amp; "` ("</f>
         <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B131" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="16">
-        <v>128</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="16"/>
       <c r="G131" s="16"/>
       <c r="H131" s="17"/>
-      <c r="I131" s="36" t="str">
-        <f t="shared" ref="I131" si="19">IF(A131="","","/* ") &amp; "`" &amp; C131 &amp; "` " &amp; D131 &amp; IF(E131&gt;0,"(" &amp; E131 &amp; ") "," ") &amp; IF(F131&lt;&gt;"","NOT NULL ","") &amp; IF(G131="","","DEFAULT '" &amp; G131 &amp; "' ") &amp; "COMMENT '"&amp; B131 &amp;"'," &amp; IF(A131="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      <c r="I131" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B132" s="15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E132" s="16">
+        <v>128</v>
+      </c>
       <c r="F132" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="17"/>
       <c r="I132" s="36" t="str">
-        <f t="shared" ref="I132" si="20">IF(A132="","","/* ") &amp; "`" &amp; C132 &amp; "` " &amp; D132 &amp; IF(E132&gt;0,"(" &amp; E132 &amp; ") "," ") &amp; IF(F132&lt;&gt;"","NOT NULL ","") &amp; IF(G132="","","DEFAULT '" &amp; G132 &amp; "' ") &amp; "COMMENT '"&amp; B132 &amp;"'," &amp; IF(A132="",""," */")</f>
+        <f t="shared" ref="I132" si="22">IF(A132="","","/* ") &amp; "`" &amp; C132 &amp; "` " &amp; D132 &amp; IF(E132&gt;0,"(" &amp; E132 &amp; ") "," ") &amp; IF(F132&lt;&gt;"","NOT NULL ","") &amp; IF(G132="","","DEFAULT '" &amp; G132 &amp; "' ") &amp; "COMMENT '"&amp; B132 &amp;"'," &amp; IF(A132="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="16"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="36" t="str">
+        <f t="shared" ref="I133" si="23">IF(A133="","","/* ") &amp; "`" &amp; C133 &amp; "` " &amp; D133 &amp; IF(E133&gt;0,"(" &amp; E133 &amp; ") "," ") &amp; IF(F133&lt;&gt;"","NOT NULL ","") &amp; IF(G133="","","DEFAULT '" &amp; G133 &amp; "' ") &amp; "COMMENT '"&amp; B133 &amp;"'," &amp; IF(A133="",""," */")</f>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="22"/>
-      <c r="I133" s="37" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="22"/>
+      <c r="I134" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D135" s="30" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D136" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E136" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F136" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="31" t="s">
+      <c r="G136" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="32" t="s">
+      <c r="H136" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B136" s="51" t="s">
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B137" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C137" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
+      <c r="D137" s="33"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
         <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B137" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="27" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B138" s="15" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
       <c r="H138" s="17"/>
-      <c r="I138" s="36" t="str">
-        <f t="shared" ref="I138" si="21">IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; "COMMENT '"&amp; B138 &amp;"'," &amp; IF(A138="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
+      <c r="I138" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B139" s="15" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="16">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
       <c r="H139" s="17"/>
       <c r="I139" s="36" t="str">
-        <f t="shared" ref="I139:I144" si="22">IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; "COMMENT '"&amp; B139 &amp;"'," &amp; IF(A139="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
+        <f t="shared" ref="I139" si="24">IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; "COMMENT '"&amp; B139 &amp;"'," &amp; IF(A139="",""," */")</f>
+        <v>`category_id` INT COMMENT '分類',</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B140" s="15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E140" s="16">
+        <v>64</v>
+      </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
       <c r="H140" s="17"/>
       <c r="I140" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
+        <f t="shared" ref="I140:I145" si="25">IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; "COMMENT '"&amp; B140 &amp;"'," &amp; IF(A140="",""," */")</f>
+        <v>`name` VARCHAR(64) COMMENT '名前',</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B141" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="16">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="17"/>
       <c r="I141" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+        <f t="shared" si="25"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B142" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>13</v>
@@ -4490,16 +4311,16 @@
       <c r="G142" s="16"/>
       <c r="H142" s="17"/>
       <c r="I142" s="36" t="str">
-        <f t="shared" ref="I142" si="23">IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; "COMMENT '"&amp; B142 &amp;"'," &amp; IF(A142="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" si="25"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B143" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>13</v>
@@ -4511,421 +4332,437 @@
       <c r="G143" s="16"/>
       <c r="H143" s="17"/>
       <c r="I143" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <f t="shared" ref="I143" si="26">IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; "COMMENT '"&amp; B143 &amp;"'," &amp; IF(A143="",""," */")</f>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="22"/>
       <c r="B144" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E144" s="16">
+        <v>32</v>
+      </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
       <c r="H144" s="17"/>
       <c r="I144" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="25"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="22"/>
-      <c r="I145" s="37" t="s">
+      <c r="B145" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" s="22"/>
+      <c r="I146" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B92:B94 B144:B145 B133 B15 B22 B11 B33 B60 B71:B76 B147:B1048576">
-    <cfRule type="expression" dxfId="88" priority="174">
+  <conditionalFormatting sqref="B1:B3 B93:B95 B145:B146 B134 B15 B22 B11 B33 B72:B77 B148:B1048576 B69:B70">
+    <cfRule type="expression" dxfId="75" priority="185">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B87 B90:B91">
-    <cfRule type="expression" dxfId="87" priority="118">
+  <conditionalFormatting sqref="B86:B88 B91:B92">
+    <cfRule type="expression" dxfId="74" priority="129">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="73" priority="119">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="72" priority="99">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B106">
+    <cfRule type="expression" dxfId="71" priority="97">
+      <formula>A104&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97:B99 B102">
+    <cfRule type="expression" dxfId="70" priority="96">
+      <formula>A97&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107">
+    <cfRule type="expression" dxfId="69" priority="95">
+      <formula>A107&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="expression" dxfId="68" priority="94">
+      <formula>A101&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136:B138 B144 B140:B142">
+    <cfRule type="expression" dxfId="67" priority="92">
+      <formula>A136&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147">
+    <cfRule type="expression" dxfId="66" priority="91">
+      <formula>A147&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143">
+    <cfRule type="expression" dxfId="65" priority="89">
+      <formula>A143&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B132">
+    <cfRule type="expression" dxfId="64" priority="87">
+      <formula>A129&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="expression" dxfId="63" priority="86">
+      <formula>A135&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="expression" dxfId="62" priority="84">
+      <formula>A139&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
+    <cfRule type="expression" dxfId="61" priority="83">
+      <formula>A133&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" dxfId="60" priority="82">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B81">
+    <cfRule type="expression" dxfId="59" priority="81">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="58" priority="80">
       <formula>A85&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="86" priority="108">
-      <formula>A95&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="57" priority="79">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="56" priority="78">
+      <formula>A83&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="85" priority="88">
+    <cfRule type="expression" dxfId="55" priority="77">
       <formula>A89&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B105">
-    <cfRule type="expression" dxfId="84" priority="86">
+  <conditionalFormatting sqref="B100">
+    <cfRule type="expression" dxfId="54" priority="76">
+      <formula>A100&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="expression" dxfId="53" priority="75">
+      <formula>A119&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B110 B112">
+    <cfRule type="expression" dxfId="52" priority="74">
+      <formula>A108&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
+    <cfRule type="expression" dxfId="51" priority="73">
+      <formula>A120&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="expression" dxfId="50" priority="72">
+      <formula>A113&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118">
+    <cfRule type="expression" dxfId="49" priority="71">
+      <formula>A118&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="expression" dxfId="48" priority="70">
+      <formula>A116&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
+    <cfRule type="expression" dxfId="47" priority="68">
+      <formula>A114&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117">
+    <cfRule type="expression" dxfId="46" priority="67">
+      <formula>A117&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="expression" dxfId="45" priority="66">
+      <formula>A127&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B124">
+    <cfRule type="expression" dxfId="44" priority="65">
+      <formula>A121&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>A128&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="expression" dxfId="42" priority="63">
+      <formula>A125&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="expression" dxfId="41" priority="62">
+      <formula>A126&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111">
+    <cfRule type="expression" dxfId="40" priority="61">
+      <formula>A111&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="expression" dxfId="39" priority="60">
+      <formula>A115&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>A103&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96:B98 B101">
-    <cfRule type="expression" dxfId="83" priority="85">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="82" priority="84">
-      <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" dxfId="81" priority="83">
-      <formula>A100&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B137 B143 B139:B141">
-    <cfRule type="expression" dxfId="80" priority="81">
-      <formula>A135&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>A146&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142">
-    <cfRule type="expression" dxfId="78" priority="78">
-      <formula>A142&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B131">
-    <cfRule type="expression" dxfId="77" priority="76">
-      <formula>A128&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="76" priority="75">
-      <formula>A134&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="expression" dxfId="75" priority="73">
-      <formula>A138&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="74" priority="72">
-      <formula>A132&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="73" priority="71">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B80">
-    <cfRule type="expression" dxfId="72" priority="70">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="71" priority="69">
-      <formula>A84&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="70" priority="68">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="69" priority="67">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="68" priority="66">
-      <formula>A88&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="67" priority="65">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118">
-    <cfRule type="expression" dxfId="66" priority="64">
-      <formula>A118&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107:B109 B111">
-    <cfRule type="expression" dxfId="65" priority="63">
-      <formula>A107&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="64" priority="62">
-      <formula>A119&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
-    <cfRule type="expression" dxfId="63" priority="61">
-      <formula>A112&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117">
-    <cfRule type="expression" dxfId="62" priority="60">
-      <formula>A117&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="expression" dxfId="61" priority="59">
-      <formula>A115&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="expression" dxfId="60" priority="57">
-      <formula>A113&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
-    <cfRule type="expression" dxfId="59" priority="56">
-      <formula>A116&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="expression" dxfId="58" priority="55">
-      <formula>A126&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B123">
-    <cfRule type="expression" dxfId="57" priority="54">
-      <formula>A120&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="56" priority="53">
-      <formula>A127&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="55" priority="52">
-      <formula>A124&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="expression" dxfId="54" priority="51">
-      <formula>A125&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110">
-    <cfRule type="expression" dxfId="53" priority="50">
-      <formula>A110&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="expression" dxfId="52" priority="49">
-      <formula>A114&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102">
-    <cfRule type="expression" dxfId="51" priority="46">
-      <formula>A102&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="37" priority="56">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="49" priority="44">
+    <cfRule type="expression" dxfId="36" priority="55">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="48" priority="43">
+    <cfRule type="expression" dxfId="35" priority="54">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="34" priority="52">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="45" priority="38">
+    <cfRule type="expression" dxfId="32" priority="49">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="44" priority="37">
+    <cfRule type="expression" dxfId="31" priority="48">
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="28" priority="41">
       <formula>A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="24" priority="37">
       <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B41 B52">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>A35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>A34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42 B46:B48 B44">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66 B71 B60">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B63">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>A59&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B56">
-    <cfRule type="expression" dxfId="33" priority="22">
-      <formula>A55&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B53:B56">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A57&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="31" priority="20">
-      <formula>A54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="30" priority="19">
-      <formula>A58&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" dxfId="28" priority="17">
-      <formula>A69&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61 B65:B67 B63">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>A68&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="24" priority="13">
-      <formula>A62&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 B52">
-    <cfRule type="expression" dxfId="23" priority="12">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="21" priority="11">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="19" priority="10">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="17" priority="9">
-      <formula>A38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>A35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A43&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="85">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -118,18 +118,18 @@
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>インデックス</t>
@@ -159,7 +159,7 @@
     <rPh sb="0" eb="2">
       <t>ヨウト</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>※Unique制約を設定する替わりに、チェックはCakePHPのモデルに実装。</t>
@@ -186,7 +186,7 @@
   </si>
   <si>
     <t xml:space="preserve">modified : </t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>modified</t>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>categories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>category_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>trans</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -222,10 +214,6 @@
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -240,10 +228,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>position</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>履歴</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -251,18 +235,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>histories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ノート</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>テキスト</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -279,19 +251,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>xyz</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>wh</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>wh</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>category</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -302,26 +262,77 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>page</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todopages</t>
-  </si>
-  <si>
-    <t>todopages</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todopage_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>pageid</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ord</t>
+    <t>dayofevent</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>textcolor</t>
+  </si>
+  <si>
+    <t>textcolor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendars</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cake2_notebook</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todocategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>todohistories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -329,123 +340,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>events</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>dayofevent</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>textcolor</t>
-  </si>
-  <si>
-    <t>textcolor</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Calendar</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>calendars</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>calendar_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>emphasis</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>cake2_notebook</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todocategory</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todocategories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todocategory_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todohistories</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>todo</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>memo</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -467,10 +361,6 @@
   </si>
   <si>
     <t>memocategory_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>event</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -510,6 +400,30 @@
   </si>
   <si>
     <t>recordcategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendarcategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendarcategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendars</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>calendarcategory_id</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -517,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,14 +506,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -739,13 +645,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -782,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,23 +701,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +792,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,10 +802,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -926,210 +811,178 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="7" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="5" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="40% - アクセント 4" xfId="2" builtinId="43"/>
-    <cellStyle name="アクセント 1" xfId="4" builtinId="29"/>
-    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="3" builtinId="29"/>
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
-    <cellStyle name="メモ 2" xfId="6"/>
+    <cellStyle name="メモ 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="良い" xfId="7" builtinId="26"/>
+    <cellStyle name="標準 2" xfId="4"/>
+    <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="85">
     <dxf>
       <fill>
         <patternFill>
@@ -1735,8 +1588,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="88"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="87"/>
+    <tableColumn id="1" name="No." dataDxfId="84"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="83"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -2030,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2055,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -2079,7 +1932,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>4</v>
@@ -2099,11 +1952,11 @@
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>82</v>
+      <c r="B5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
@@ -2160,17 +2013,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -2230,11 +2083,11 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>35</v>
+      <c r="B13" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
@@ -2271,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>13</v>
@@ -2291,10 +2144,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>16</v>
@@ -2310,10 +2163,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>16</v>
@@ -2331,13 +2184,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2373,10 +2226,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>11</v>
@@ -2419,11 +2272,11 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>86</v>
+      <c r="B24" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
@@ -2460,7 +2313,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>13</v>
@@ -2480,10 +2333,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>16</v>
@@ -2499,10 +2352,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>16</v>
@@ -2520,13 +2373,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -2562,10 +2415,10 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>11</v>
@@ -2587,7 +2440,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="42" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>4</v>
@@ -2607,11 +2460,11 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>93</v>
+      <c r="B35" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -2668,10 +2521,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>16</v>
@@ -2732,11 +2585,11 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>95</v>
+      <c r="B43" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="34"/>
@@ -2770,10 +2623,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>16</v>
@@ -2812,10 +2665,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>17</v>
@@ -2831,10 +2684,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>13</v>
@@ -2852,10 +2705,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>13</v>
@@ -2899,7 +2752,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" s="42" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>4</v>
@@ -2919,11 +2772,11 @@
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>103</v>
+      <c r="B54" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="34"/>
@@ -2980,17 +2833,17 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3050,11 +2903,11 @@
       <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>105</v>
+      <c r="B62" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>77</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="34"/>
@@ -3088,10 +2941,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="15" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>16</v>
@@ -3107,17 +2960,17 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -3131,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>13</v>
@@ -3151,10 +3004,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>16</v>
@@ -3172,13 +3025,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -3221,1548 +3074,644 @@
       <c r="A71" s="43"/>
       <c r="H71" s="29"/>
     </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="36" t="str">
+        <f t="shared" ref="I75:I82" si="11">IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; "COMMENT '"&amp; B75 &amp;"'," &amp; IF(A75="",""," */")</f>
+        <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="16">
+        <v>128</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+      </c>
+    </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B79" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
-        <v>CREATE TABLE `todopages` (</v>
+      <c r="B78" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`end` DATE COMMENT 'end',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E80" s="16">
+        <v>32</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="27" t="s">
-        <v>3</v>
+      <c r="I80" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B81" s="15" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E81" s="16">
-        <v>128</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
-        <f t="shared" ref="I81:I83" si="11">IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; "COMMENT '"&amp; B81 &amp;"'," &amp; IF(A81="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="11"/>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
       <c r="B82" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
       <c r="I82" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`ord` INT NOT NULL COMMENT 'ord',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
-      <c r="B83" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="22"/>
-      <c r="I84" s="37" t="s">
+      <c r="I83" s="37" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="42"/>
+      <c r="D85" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="30"/>
+    </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D86" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B87" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C87 &amp; "` ("</f>
-        <v>CREATE TABLE `todos` (</v>
+      <c r="B86" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C86 &amp; "` ("</f>
+        <v>CREATE TABLE `calendarcategories` (</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B88" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E88" s="16">
+        <v>128</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="27" t="s">
-        <v>3</v>
+      <c r="I88" s="36" t="str">
+        <f t="shared" ref="I88:I90" si="12">IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; "COMMENT '"&amp; B88 &amp;"'," &amp; IF(A88="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B89" s="15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
       <c r="I89" s="36" t="str">
-        <f t="shared" ref="I89" si="12">IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; "COMMENT '"&amp; B89 &amp;"'," &amp; IF(A89="",""," */")</f>
-        <v>`todopage_id` INT COMMENT 'page',</v>
+        <f t="shared" si="12"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="22"/>
       <c r="B90" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E90" s="16"/>
-      <c r="F90" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
       <c r="I90" s="36" t="str">
-        <f t="shared" ref="I90" si="13">IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; "COMMENT '"&amp; B90 &amp;"'," &amp; IF(A90="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <f t="shared" si="12"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="16">
-        <v>128</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="36" t="str">
-        <f t="shared" ref="I91:I94" si="14">IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; "COMMENT '"&amp; B91 &amp;"'," &amp; IF(A91="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G92" s="16">
-        <v>0</v>
-      </c>
-      <c r="H92" s="17"/>
-      <c r="I92" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="22"/>
-      <c r="B93" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="22"/>
-      <c r="B94" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="22"/>
-      <c r="I95" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D97" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B98" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
-        <v>CREATE TABLE `histories` (</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="36" t="str">
-        <f t="shared" ref="I100" si="15">IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; "COMMENT '"&amp; B100 &amp;"'," &amp; IF(A100="",""," */")</f>
-        <v>`pageid` INT COMMENT 'page',</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="36" t="str">
-        <f t="shared" ref="I101:I105" si="16">IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; "COMMENT '"&amp; B101 &amp;"'," &amp; IF(A101="",""," */")</f>
-        <v>`position` INT COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="16">
-        <v>128</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`name` VARCHAR(128) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="16">
-        <v>0</v>
-      </c>
-      <c r="H103" s="17"/>
-      <c r="I103" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`emphasis` BOOLEAN NOT NULL DEFAULT '0' COMMENT 'emphasis',</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="22"/>
-      <c r="B104" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="22"/>
-      <c r="B105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="22"/>
-      <c r="I106" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B109" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
-        <v>CREATE TABLE `events` (</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="36" t="str">
-        <f t="shared" ref="I111" si="17">IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; "COMMENT '"&amp; B111 &amp;"'," &amp; IF(A111="",""," */")</f>
-        <v>`calendar_id` INT COMMENT 'calendars',</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="16">
-        <v>128</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="36" t="str">
-        <f t="shared" ref="I112:I118" si="18">IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; "COMMENT '"&amp; B112 &amp;"'," &amp; IF(A112="",""," */")</f>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="36" t="str">
-        <f t="shared" ref="I114:I115" si="19">IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; "COMMENT '"&amp; B114 &amp;"'," &amp; IF(A114="",""," */")</f>
-        <v>`end` DATE COMMENT 'end',</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="16">
-        <v>32</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="16">
-        <v>32</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="36" t="str">
-        <f t="shared" ref="I117" si="20">IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; "COMMENT '"&amp; B117 &amp;"'," &amp; IF(A117="",""," */")</f>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="22"/>
-      <c r="B118" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="22"/>
-      <c r="I119" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="42"/>
-      <c r="D121" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B122" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D122" s="33"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C122 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="16">
-        <v>128</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="36" t="str">
-        <f t="shared" ref="I124:I126" si="21">IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; "COMMENT '"&amp; B124 &amp;"'," &amp; IF(A124="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="16"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="22"/>
-      <c r="B126" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="22"/>
-      <c r="I127" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B129" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B130" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" s="33"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C130 &amp; "` ("</f>
-        <v>CREATE TABLE `categories` (</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="16">
-        <v>128</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="36" t="str">
-        <f t="shared" ref="I132" si="22">IF(A132="","","/* ") &amp; "`" &amp; C132 &amp; "` " &amp; D132 &amp; IF(E132&gt;0,"(" &amp; E132 &amp; ") "," ") &amp; IF(F132&lt;&gt;"","NOT NULL ","") &amp; IF(G132="","","DEFAULT '" &amp; G132 &amp; "' ") &amp; "COMMENT '"&amp; B132 &amp;"'," &amp; IF(A132="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="36" t="str">
-        <f t="shared" ref="I133" si="23">IF(A133="","","/* ") &amp; "`" &amp; C133 &amp; "` " &amp; D133 &amp; IF(E133&gt;0,"(" &amp; E133 &amp; ") "," ") &amp; IF(F133&lt;&gt;"","NOT NULL ","") &amp; IF(G133="","","DEFAULT '" &amp; G133 &amp; "' ") &amp; "COMMENT '"&amp; B133 &amp;"'," &amp; IF(A133="",""," */")</f>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="22"/>
-      <c r="I134" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D136" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H136" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B137" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" s="33"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
-        <v>CREATE TABLE `notes` (</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B138" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="36" t="str">
-        <f t="shared" ref="I139" si="24">IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; "COMMENT '"&amp; B139 &amp;"'," &amp; IF(A139="",""," */")</f>
-        <v>`category_id` INT COMMENT '分類',</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="16">
-        <v>64</v>
-      </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="36" t="str">
-        <f t="shared" ref="I140:I145" si="25">IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; "COMMENT '"&amp; B140 &amp;"'," &amp; IF(A140="",""," */")</f>
-        <v>`name` VARCHAR(64) COMMENT '名前',</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B141" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" s="16">
-        <v>32</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="16">
-        <v>32</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="36" t="str">
-        <f t="shared" ref="I143" si="26">IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; "COMMENT '"&amp; B143 &amp;"'," &amp; IF(A143="",""," */")</f>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="16">
-        <v>32</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="22"/>
-      <c r="B145" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="22"/>
-      <c r="I146" s="37" t="s">
+      <c r="A91" s="22"/>
+      <c r="I91" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B93:B95 B145:B146 B134 B15 B22 B11 B33 B72:B77 B148:B1048576 B69:B70">
-    <cfRule type="expression" dxfId="75" priority="185">
+  <conditionalFormatting sqref="B1:B3 B15 B22 B11 B33 B69:B70 B93:B1048576">
+    <cfRule type="expression" dxfId="56" priority="211">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B88 B91:B92">
-    <cfRule type="expression" dxfId="74" priority="129">
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="55" priority="82">
+      <formula>A19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="expression" dxfId="54" priority="81">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="53" priority="80">
+      <formula>A17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="52" priority="78">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="51" priority="77">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="50" priority="75">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="49" priority="74">
+      <formula>A16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="48" priority="73">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="47" priority="70">
+      <formula>A23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="46" priority="67">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="45" priority="66">
+      <formula>A26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32">
+    <cfRule type="expression" dxfId="44" priority="65">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="42" priority="63">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="41" priority="62">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="40" priority="61">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41 B52">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="36" priority="46">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="35" priority="45">
+      <formula>A35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="34" priority="44">
+      <formula>A39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="33" priority="43">
+      <formula>A34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="expression" dxfId="32" priority="42">
+      <formula>A50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42 B46:B48 B44">
+    <cfRule type="expression" dxfId="31" priority="41">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="30" priority="40">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66 B71 B60">
+    <cfRule type="expression" dxfId="27" priority="37">
+      <formula>A60&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B63">
+    <cfRule type="expression" dxfId="26" priority="35">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="25" priority="34">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>A59&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B56">
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="22" priority="31">
+      <formula>A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="21" priority="30">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>A57&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="19" priority="28">
+      <formula>A68&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="18" priority="27">
+      <formula>A65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76 B74">
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>A74&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>A75&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A72&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>A73&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85 B87:B88">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>A92&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="73" priority="119">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="72" priority="99">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B106">
-    <cfRule type="expression" dxfId="71" priority="97">
-      <formula>A104&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B99 B102">
-    <cfRule type="expression" dxfId="70" priority="96">
-      <formula>A97&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="69" priority="95">
-      <formula>A107&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="expression" dxfId="68" priority="94">
-      <formula>A101&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B138 B144 B140:B142">
-    <cfRule type="expression" dxfId="67" priority="92">
-      <formula>A136&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
-    <cfRule type="expression" dxfId="66" priority="91">
-      <formula>A147&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143">
-    <cfRule type="expression" dxfId="65" priority="89">
-      <formula>A143&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:B132">
-    <cfRule type="expression" dxfId="64" priority="87">
-      <formula>A129&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="expression" dxfId="63" priority="86">
-      <formula>A135&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139">
-    <cfRule type="expression" dxfId="62" priority="84">
-      <formula>A139&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="61" priority="83">
-      <formula>A133&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="60" priority="82">
-      <formula>A84&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B81">
-    <cfRule type="expression" dxfId="59" priority="81">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="58" priority="80">
-      <formula>A85&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="57" priority="79">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="56" priority="78">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="55" priority="77">
-      <formula>A89&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="expression" dxfId="54" priority="76">
-      <formula>A100&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="53" priority="75">
-      <formula>A119&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B110 B112">
-    <cfRule type="expression" dxfId="52" priority="74">
-      <formula>A108&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
-    <cfRule type="expression" dxfId="51" priority="73">
-      <formula>A120&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="expression" dxfId="50" priority="72">
-      <formula>A113&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118">
-    <cfRule type="expression" dxfId="49" priority="71">
-      <formula>A118&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
-    <cfRule type="expression" dxfId="48" priority="70">
-      <formula>A116&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="expression" dxfId="47" priority="68">
-      <formula>A114&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117">
-    <cfRule type="expression" dxfId="46" priority="67">
-      <formula>A117&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="45" priority="66">
-      <formula>A127&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B124">
-    <cfRule type="expression" dxfId="44" priority="65">
-      <formula>A121&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>A128&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="expression" dxfId="42" priority="63">
-      <formula>A125&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="expression" dxfId="41" priority="62">
-      <formula>A126&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B111">
-    <cfRule type="expression" dxfId="40" priority="61">
-      <formula>A111&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="expression" dxfId="39" priority="60">
-      <formula>A115&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="expression" dxfId="38" priority="57">
-      <formula>A103&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="37" priority="56">
-      <formula>A19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="36" priority="55">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="35" priority="54">
-      <formula>A17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="34" priority="52">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="33" priority="51">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="32" priority="49">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="31" priority="48">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="30" priority="47">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="29" priority="44">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="28" priority="41">
-      <formula>A18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="27" priority="40">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="26" priority="39">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="25" priority="38">
-      <formula>A25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="24" priority="37">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="23" priority="36">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="22" priority="35">
-      <formula>A29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 B52">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>A38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>A35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66 B71 B60">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>A60&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>A58&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>A57&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>A68&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4844,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>28</v>
@@ -4859,10 +3808,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="40" t="str">
         <f>IF(テーブル133[[#This Row],[インデックス]]&lt;&gt;"","ALTER TABLE  " &amp; テーブル133[[#This Row],[テーブル]] &amp; " ADD INDEX (" &amp; テーブル133[[#This Row],[インデックス]] &amp;" );","")</f>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -982,196 +982,7 @@
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -1588,8 +1399,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="84"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="83"/>
+    <tableColumn id="1" name="No." dataDxfId="57"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="56"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1883,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3004,13 +2815,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -3020,150 +2831,150 @@
       <c r="H67" s="17"/>
       <c r="I67" s="36" t="str">
         <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
-        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
       <c r="B68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="16">
-        <v>0</v>
-      </c>
+      <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
-        <f>IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
-        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+        <f t="shared" ref="I68" si="10">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
-      <c r="B69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="36" t="str">
-        <f t="shared" ref="I69" si="10">IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; "COMMENT '"&amp; B69 &amp;"'," &amp; IF(A69="",""," */")</f>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="22"/>
-      <c r="I70" s="37" t="s">
+      <c r="I69" s="37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="H71" s="29"/>
+    <row r="70" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="43"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="30"/>
+      <c r="B72" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
+      <c r="B73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="27" t="s">
-        <v>3</v>
+      <c r="I74" s="36" t="str">
+        <f t="shared" ref="I74:I81" si="11">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
+        <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B75" s="15" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E75" s="16">
+        <v>128</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="36" t="str">
-        <f t="shared" ref="I75:I82" si="11">IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; "COMMENT '"&amp; B75 &amp;"'," &amp; IF(A75="",""," */")</f>
-        <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
+        <f t="shared" si="11"/>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="16">
-        <v>128</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
         <v>7</v>
       </c>
@@ -3171,39 +2982,37 @@
       <c r="H76" s="17"/>
       <c r="I76" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B77" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="16"/>
-      <c r="F77" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+        <v>`end` DATE COMMENT 'end',</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
@@ -3211,34 +3020,36 @@
       <c r="H78" s="17"/>
       <c r="I78" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`end` DATE COMMENT 'end',</v>
+        <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E79" s="16">
+        <v>32</v>
+      </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>13</v>
@@ -3251,342 +3062,316 @@
       <c r="H80" s="17"/>
       <c r="I80" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="22"/>
       <c r="B81" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="16">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
-      <c r="B82" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="22"/>
-      <c r="I83" s="37" t="s">
+      <c r="I82" s="37" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="42"/>
+      <c r="D84" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="30"/>
+    </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="42"/>
-      <c r="D85" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="30"/>
+      <c r="B85" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
+        <v>CREATE TABLE `calendarcategories` (</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C86 &amp; "` ("</f>
-        <v>CREATE TABLE `calendarcategories` (</v>
+      <c r="B86" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B87" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E87" s="16">
+        <v>128</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="27" t="s">
-        <v>3</v>
+      <c r="I87" s="36" t="str">
+        <f t="shared" ref="I87:I89" si="12">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B88" s="15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="16">
-        <v>128</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E88" s="16"/>
       <c r="F88" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
       <c r="I88" s="36" t="str">
-        <f t="shared" ref="I88:I90" si="12">IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; "COMMENT '"&amp; B88 &amp;"'," &amp; IF(A88="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" si="12"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="22"/>
       <c r="B89" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
       <c r="I89" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
-      <c r="B90" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="22"/>
-      <c r="I91" s="37" t="s">
+      <c r="I90" s="37" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B15 B22 B11 B33 B69:B70 B93:B1048576">
-    <cfRule type="expression" dxfId="56" priority="211">
+  <conditionalFormatting sqref="B1:B3 B15 B22 B11 B33 B68:B69 B92:B1048576">
+    <cfRule type="expression" dxfId="55" priority="211">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="55" priority="82">
+    <cfRule type="expression" dxfId="54" priority="82">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="54" priority="81">
+    <cfRule type="expression" dxfId="53" priority="81">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="53" priority="80">
+    <cfRule type="expression" dxfId="52" priority="80">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="52" priority="78">
+    <cfRule type="expression" dxfId="51" priority="78">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="51" priority="77">
+    <cfRule type="expression" dxfId="50" priority="77">
       <formula>A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="50" priority="75">
+    <cfRule type="expression" dxfId="49" priority="75">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="49" priority="74">
+    <cfRule type="expression" dxfId="48" priority="74">
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="47" priority="70">
+    <cfRule type="expression" dxfId="46" priority="70">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="46" priority="67">
+    <cfRule type="expression" dxfId="45" priority="67">
       <formula>A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="45" priority="66">
+    <cfRule type="expression" dxfId="44" priority="66">
       <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="44" priority="65">
+    <cfRule type="expression" dxfId="43" priority="65">
       <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="43" priority="64">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="42" priority="63">
+    <cfRule type="expression" dxfId="41" priority="63">
       <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="41" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 B52">
-    <cfRule type="expression" dxfId="39" priority="49">
+    <cfRule type="expression" dxfId="38" priority="49">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="38" priority="48">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="36" priority="46">
+    <cfRule type="expression" dxfId="35" priority="46">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="35" priority="45">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="34" priority="44">
+    <cfRule type="expression" dxfId="33" priority="44">
       <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="33" priority="43">
+    <cfRule type="expression" dxfId="32" priority="43">
       <formula>A34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="32" priority="42">
+    <cfRule type="expression" dxfId="31" priority="42">
       <formula>A50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="31" priority="41">
+    <cfRule type="expression" dxfId="30" priority="41">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66 B71 B60">
-    <cfRule type="expression" dxfId="27" priority="37">
+  <conditionalFormatting sqref="B66 B70 B60">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="25" priority="34">
-      <formula>A67&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
@@ -3614,9 +3399,9 @@
       <formula>A57&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B67">
     <cfRule type="expression" dxfId="19" priority="28">
-      <formula>A68&lt;&gt;""</formula>
+      <formula>A67&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
@@ -3624,94 +3409,94 @@
       <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 B73">
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>A73&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>A83&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76 B74">
-    <cfRule type="expression" dxfId="16" priority="20">
+  <conditionalFormatting sqref="B76">
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>A76&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>A81&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>A74&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>A71&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>A72&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 B86:B87">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>A84&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>A75&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>A72&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>A73&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>A91&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85 B87:B88">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A85&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>A92&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>A89&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A86&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -424,6 +424,22 @@
   </si>
   <si>
     <t>calendarcategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"id" integer primary key autoincrement </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>);</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -984,404 +1000,404 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,8 +1415,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="57"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="56"/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1694,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87:J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1709,12 +1725,13 @@
     <col min="5" max="5" width="8.75" style="20" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="20" customWidth="1"/>
-    <col min="8" max="8" width="29.25" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="21" customWidth="1"/>
     <col min="9" max="9" width="54.375" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="10" max="10" width="44.125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="38" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1741,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="str">
         <f>"CREATE DATABASE `" &amp; C1 &amp; "` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;"</f>
         <v>CREATE DATABASE `cake2_notebook` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</v>
@@ -1737,11 +1754,17 @@
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="43"/>
       <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="42" t="s">
         <v>63</v>
       </c>
@@ -1761,8 +1784,9 @@
         <v>18</v>
       </c>
       <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="51" t="s">
         <v>54</v>
       </c>
@@ -1778,8 +1802,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
         <v>CREATE TABLE `todocategories` (</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `todocategories` (</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1798,8 +1826,11 @@
       <c r="I6" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1818,11 +1849,15 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
       <c r="I7" s="36" t="str">
-        <f t="shared" ref="I7:I9" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
+        <f t="shared" ref="I7:J9" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="36" t="str">
+        <f>"," &amp;  "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
@@ -1844,8 +1879,12 @@
         <f>IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; "COMMENT '"&amp; B8 &amp;"'," &amp; IF(A8="",""," */")</f>
         <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="36" t="str">
+        <f t="shared" ref="J8:J9" si="1">"," &amp;  "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ")</f>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>0</v>
@@ -1864,18 +1903,25 @@
         <f t="shared" si="0"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="I10" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J10" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D12" s="30" t="s">
         <v>4</v>
       </c>
@@ -1892,8 +1938,9 @@
         <v>18</v>
       </c>
       <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="51" t="s">
         <v>32</v>
       </c>
@@ -1909,8 +1956,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C13 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C13 &amp; "` ("</f>
+        <v>CREATE TABLE `todos` (</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -1929,8 +1980,11 @@
       <c r="I14" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1949,11 +2003,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="36" t="str">
-        <f t="shared" ref="I15:I20" si="1">IF(A15="","","/* ") &amp; "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ") &amp; "COMMENT '"&amp; B15 &amp;"'," &amp; IF(A15="",""," */")</f>
+        <f t="shared" ref="I15:I20" si="2">IF(A15="","","/* ") &amp; "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ") &amp; "COMMENT '"&amp; B15 &amp;"'," &amp; IF(A15="",""," */")</f>
         <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="36" t="str">
+        <f t="shared" ref="J15:J20" si="3">"," &amp;  "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ")</f>
+        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
@@ -1968,11 +2026,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`todocategory_id` INT </v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
@@ -1992,8 +2054,12 @@
         <f>IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
         <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
         <v>60</v>
       </c>
@@ -2013,8 +2079,12 @@
         <f>IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
         <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>0</v>
@@ -2030,11 +2100,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>35</v>
@@ -2043,28 +2117,35 @@
         <v>36</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>`completed` DATETIME COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+      <c r="J20" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`completed` DATE </v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="I21" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J21" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D23" s="30" t="s">
         <v>4</v>
       </c>
@@ -2081,8 +2162,9 @@
         <v>18</v>
       </c>
       <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="51" t="s">
         <v>37</v>
       </c>
@@ -2098,8 +2180,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
         <v>CREATE TABLE `todohistories` (</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+        <v>CREATE TABLE `todohistories` (</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
@@ -2118,8 +2204,11 @@
       <c r="I25" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
         <v>15</v>
       </c>
@@ -2138,11 +2227,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="36" t="str">
-        <f t="shared" ref="I26:I27" si="2">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
+        <f t="shared" ref="I26:I27" si="4">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
         <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="36" t="str">
+        <f t="shared" ref="J26:J31" si="5">"," &amp;  "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ")</f>
+        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
         <v>56</v>
       </c>
@@ -2157,11 +2250,15 @@
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
       <c r="I27" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`todocategory_id` INT </v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
         <v>34</v>
       </c>
@@ -2181,8 +2278,12 @@
         <f>IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
         <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
         <v>60</v>
       </c>
@@ -2202,8 +2303,12 @@
         <f>IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
         <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
         <v>0</v>
@@ -2219,11 +2324,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
       <c r="I30" s="36" t="str">
-        <f t="shared" ref="I30:I31" si="3">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
+        <f t="shared" ref="I30:I31" si="6">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
         <v>35</v>
@@ -2232,24 +2341,31 @@
         <v>36</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
       <c r="I31" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>`completed` DATETIME COMMENT '完了日',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+      <c r="J31" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`completed` DATE </v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="I32" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B34" s="42" t="s">
         <v>64</v>
       </c>
@@ -2269,8 +2385,9 @@
         <v>18</v>
       </c>
       <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" s="51" t="s">
         <v>65</v>
       </c>
@@ -2286,8 +2403,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
         <v>CREATE TABLE `memocategories` (</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+        <v>CREATE TABLE `memocategories` (</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
         <v>9</v>
       </c>
@@ -2306,8 +2427,11 @@
       <c r="I36" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
         <v>15</v>
       </c>
@@ -2326,11 +2450,15 @@
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36" t="str">
-        <f t="shared" ref="I37:I39" si="4">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
+        <f t="shared" ref="I37:I39" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="36" t="str">
+        <f t="shared" ref="J37:J39" si="8">"," &amp;  "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
         <v>34</v>
       </c>
@@ -2347,11 +2475,15 @@
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`position` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
       <c r="B39" s="15" t="s">
         <v>0</v>
@@ -2367,17 +2499,24 @@
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="I40" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D42" s="30" t="s">
         <v>4</v>
       </c>
@@ -2394,8 +2533,9 @@
         <v>18</v>
       </c>
       <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" s="51" t="s">
         <v>67</v>
       </c>
@@ -2411,8 +2551,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
         <v>CREATE TABLE `memos` (</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J43" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `memos` (</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
         <v>9</v>
       </c>
@@ -2431,8 +2575,11 @@
       <c r="I44" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J44" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" s="15" t="s">
         <v>43</v>
       </c>
@@ -2447,11 +2594,15 @@
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
       <c r="I45" s="36" t="str">
-        <f t="shared" ref="I45:I50" si="5">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
+        <f t="shared" ref="I45:I50" si="9">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
         <v>`memocategory_id` INT COMMENT '分類',</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="36" t="str">
+        <f t="shared" ref="J45:J50" si="10">"," &amp;  "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ")</f>
+        <v xml:space="preserve">,`memocategory_id` INT </v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
         <v>15</v>
       </c>
@@ -2470,11 +2621,15 @@
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J46" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`name` VARCHAR(64) NOT NULL </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
         <v>38</v>
       </c>
@@ -2489,11 +2644,15 @@
       <c r="G47" s="16"/>
       <c r="H47" s="17"/>
       <c r="I47" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>`text` TEXT COMMENT 'テキスト',</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J47" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`text` TEXT </v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
         <v>41</v>
       </c>
@@ -2510,11 +2669,15 @@
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
       <c r="I48" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`xyz` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
         <v>42</v>
       </c>
@@ -2531,11 +2694,15 @@
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
       <c r="I49" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`wh` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="15" t="s">
         <v>0</v>
@@ -2551,17 +2718,24 @@
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
       <c r="I50" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="I51" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B53" s="42" t="s">
         <v>76</v>
       </c>
@@ -2581,8 +2755,9 @@
         <v>18</v>
       </c>
       <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54" s="51" t="s">
         <v>74</v>
       </c>
@@ -2598,8 +2773,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
         <v>CREATE TABLE `recordcategories` (</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
+        <v>CREATE TABLE `recordcategories` (</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
         <v>9</v>
       </c>
@@ -2618,8 +2797,11 @@
       <c r="I55" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B56" s="15" t="s">
         <v>15</v>
       </c>
@@ -2638,11 +2820,15 @@
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
       <c r="I56" s="36" t="str">
-        <f t="shared" ref="I56" si="6">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
+        <f t="shared" ref="I56" si="11">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="36" t="str">
+        <f t="shared" ref="J56:J58" si="12">"," &amp;  "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
         <v>34</v>
       </c>
@@ -2664,8 +2850,12 @@
         <f>IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
         <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="15" t="s">
         <v>0</v>
@@ -2681,21 +2871,28 @@
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
       <c r="I58" s="36" t="str">
-        <f t="shared" ref="I58" si="7">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+        <f t="shared" ref="I58" si="13">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="I59" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J59" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="43"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D61" s="30" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2909,9 @@
         <v>18</v>
       </c>
       <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B62" s="51" t="s">
         <v>76</v>
       </c>
@@ -2729,8 +2927,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
         <v>CREATE TABLE `records` (</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J62" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
+        <v>CREATE TABLE `records` (</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B63" s="15" t="s">
         <v>9</v>
       </c>
@@ -2749,8 +2951,11 @@
       <c r="I63" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J63" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B64" s="15" t="s">
         <v>56</v>
       </c>
@@ -2768,8 +2973,12 @@
         <f>IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
         <v>`recordcategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J64" s="36" t="str">
+        <f t="shared" ref="J64:J68" si="14">"," &amp;  "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ")</f>
+        <v xml:space="preserve">,`recordcategory_id` INT </v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
         <v>70</v>
       </c>
@@ -2786,11 +2995,15 @@
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
       <c r="I65" s="36" t="str">
-        <f t="shared" ref="I65" si="8">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+        <f t="shared" ref="I65" si="15">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
         <v>`eventdate` DATE NOT NULL COMMENT '日付',</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J65" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`eventdate` DATE NOT NULL </v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B66" s="15" t="s">
         <v>15</v>
       </c>
@@ -2809,11 +3022,15 @@
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
       <c r="I66" s="36" t="str">
-        <f t="shared" ref="I66" si="9">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+        <f t="shared" ref="I66" si="16">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
         <v>`title` VARCHAR(512) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J66" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`title` VARCHAR(512) NOT NULL </v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B67" s="15" t="s">
         <v>60</v>
       </c>
@@ -2833,8 +3050,12 @@
         <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
         <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J67" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
       <c r="B68" s="15" t="s">
         <v>0</v>
@@ -2850,21 +3071,28 @@
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="36" t="str">
-        <f t="shared" ref="I68" si="10">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
+        <f t="shared" ref="I68" si="17">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J68" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
       <c r="I69" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J69" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="43"/>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B71" s="42" t="s">
         <v>79</v>
       </c>
@@ -2884,8 +3112,9 @@
         <v>18</v>
       </c>
       <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B72" s="51" t="s">
         <v>82</v>
       </c>
@@ -2901,8 +3130,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
         <v>CREATE TABLE `calendars` (</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J72" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B73" s="15" t="s">
         <v>9</v>
       </c>
@@ -2921,8 +3154,11 @@
       <c r="I73" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J73" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B74" s="15" t="s">
         <v>50</v>
       </c>
@@ -2937,11 +3173,15 @@
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="36" t="str">
-        <f t="shared" ref="I74:I81" si="11">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
+        <f t="shared" ref="I74:I81" si="18">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
         <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J74" s="36" t="str">
+        <f t="shared" ref="J74:J81" si="19">"," &amp;  "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ")</f>
+        <v xml:space="preserve">,`calendarcategory_id` INT </v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B75" s="15" t="s">
         <v>15</v>
       </c>
@@ -2960,11 +3200,15 @@
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
       <c r="I75" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J75" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`title` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
         <v>44</v>
       </c>
@@ -2981,11 +3225,15 @@
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
       <c r="I76" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J76" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`start` DATE NOT NULL </v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B77" s="15" t="s">
         <v>47</v>
       </c>
@@ -3000,11 +3248,15 @@
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
       <c r="I77" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`end` DATE COMMENT 'end',</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J77" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`end` DATE </v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
         <v>51</v>
       </c>
@@ -3019,11 +3271,15 @@
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
       <c r="I78" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`detail` TEXT COMMENT 'detail',</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J78" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`detail` TEXT </v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
         <v>40</v>
       </c>
@@ -3040,11 +3296,15 @@
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
       <c r="I79" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`color` VARCHAR(32) COMMENT 'color',</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J79" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`color` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
         <v>49</v>
       </c>
@@ -3061,11 +3321,15 @@
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J80" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`textcolor` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
       <c r="B81" s="15" t="s">
         <v>0</v>
@@ -3081,17 +3345,24 @@
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J81" s="36" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
       <c r="I82" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J82" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B84" s="42"/>
       <c r="D84" s="30" t="s">
         <v>4</v>
@@ -3109,8 +3380,9 @@
         <v>18</v>
       </c>
       <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J84" s="30"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B85" s="51" t="s">
         <v>80</v>
       </c>
@@ -3126,8 +3398,12 @@
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
         <v>CREATE TABLE `calendarcategories` (</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J85" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
+        <v>CREATE TABLE `calendarcategories` (</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
         <v>9</v>
       </c>
@@ -3146,8 +3422,11 @@
       <c r="I86" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J86" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B87" s="15" t="s">
         <v>15</v>
       </c>
@@ -3166,11 +3445,15 @@
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
       <c r="I87" s="36" t="str">
-        <f t="shared" ref="I87:I89" si="12">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
+        <f t="shared" ref="I87:I89" si="20">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J87" s="36" t="str">
+        <f t="shared" ref="J87:J89" si="21">"," &amp;  "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B88" s="15" t="s">
         <v>34</v>
       </c>
@@ -3187,11 +3470,15 @@
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
       <c r="I88" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J88" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`position` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="22"/>
       <c r="B89" s="15" t="s">
         <v>0</v>
@@ -3207,295 +3494,302 @@
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
       <c r="I89" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J89" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
       <c r="I90" s="37" t="s">
         <v>2</v>
       </c>
+      <c r="J90" s="37" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B1:B3 B15 B22 B11 B33 B68:B69 B92:B1048576">
-    <cfRule type="expression" dxfId="55" priority="211">
+    <cfRule type="expression" dxfId="57" priority="211">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="54" priority="82">
+    <cfRule type="expression" dxfId="56" priority="82">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="53" priority="81">
+    <cfRule type="expression" dxfId="55" priority="81">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="52" priority="80">
+    <cfRule type="expression" dxfId="54" priority="80">
       <formula>A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="51" priority="78">
+    <cfRule type="expression" dxfId="53" priority="78">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="50" priority="77">
+    <cfRule type="expression" dxfId="52" priority="77">
       <formula>A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="49" priority="75">
+    <cfRule type="expression" dxfId="51" priority="75">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="48" priority="74">
+    <cfRule type="expression" dxfId="50" priority="74">
       <formula>A16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="47" priority="73">
+    <cfRule type="expression" dxfId="49" priority="73">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="46" priority="70">
+    <cfRule type="expression" dxfId="48" priority="70">
       <formula>A23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="45" priority="67">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="44" priority="66">
+    <cfRule type="expression" dxfId="46" priority="66">
       <formula>A26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="43" priority="65">
+    <cfRule type="expression" dxfId="45" priority="65">
       <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="42" priority="64">
+    <cfRule type="expression" dxfId="44" priority="64">
       <formula>A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="41" priority="63">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="40" priority="62">
+    <cfRule type="expression" dxfId="42" priority="62">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="39" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 B52">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="36" priority="47">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="35" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="34" priority="45">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>A35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="33" priority="44">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="32" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>A34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>A50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66 B70 B60">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="27" priority="35">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="26" priority="33">
       <formula>A59&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B56">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>A53&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>A58&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>A57&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>A67&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>A82&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B73">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>A73&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>A83&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>A76&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>A81&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>A79&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>A77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>A80&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>A74&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>A78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>A71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>A72&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>A90&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84 B86:B87">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>A84&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>A91&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>A88&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>A89&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>A85&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>);</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>deleted_date</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -998,7 +1010,497 @@
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1006,398 +1508,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1415,8 +1525,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="1"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="71"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="70"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1710,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87:J89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1849,7 +1959,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
       <c r="I7" s="36" t="str">
-        <f t="shared" ref="I7:J9" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
+        <f t="shared" ref="I7:I9" si="0">IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; "COMMENT '"&amp; B7 &amp;"'," &amp; IF(A7="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J7" s="36" t="str">
@@ -1910,1887 +2020,2119 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
-      <c r="I10" s="37" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="36" t="str">
+        <f t="shared" ref="I10" si="2">IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; "COMMENT '"&amp; B10 &amp;"'," &amp; IF(A10="",""," */")</f>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '',</v>
+      </c>
+      <c r="J10" s="36" t="str">
+        <f t="shared" ref="J10" si="3">"," &amp;  "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ")</f>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="36" t="str">
+        <f t="shared" ref="I11" si="4">IF(A11="","","/* ") &amp; "`" &amp; C11 &amp; "` " &amp; D11 &amp; IF(E11&gt;0,"(" &amp; E11 &amp; ") "," ") &amp; IF(F11&lt;&gt;"","NOT NULL ","") &amp; IF(G11="","","DEFAULT '" &amp; G11 &amp; "' ") &amp; "COMMENT '"&amp; B11 &amp;"'," &amp; IF(A11="",""," */")</f>
+        <v>`deleted_date` DATETIME COMMENT '',</v>
+      </c>
+      <c r="J11" s="36" t="str">
+        <f t="shared" ref="J11" si="5">"," &amp;  "`" &amp; C11 &amp; "` " &amp; D11 &amp; IF(E11&gt;0,"(" &amp; E11 &amp; ") "," ") &amp; IF(F11&lt;&gt;"","NOT NULL ","") &amp; IF(G11="","","DEFAULT '" &amp; G11 &amp; "' ")</f>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="I12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J12" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D12" s="30" t="s">
+    <row r="13" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="51" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C13 &amp; "` ("</f>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
       </c>
-      <c r="J13" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C13 &amp; "` ("</f>
+      <c r="J15" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
         <v>CREATE TABLE `todos` (</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="16">
-        <v>256</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="36" t="str">
-        <f t="shared" ref="I15:I20" si="2">IF(A15="","","/* ") &amp; "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ") &amp; "COMMENT '"&amp; B15 &amp;"'," &amp; IF(A15="",""," */")</f>
-        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
-      </c>
-      <c r="J15" s="36" t="str">
-        <f t="shared" ref="J15:J20" si="3">"," &amp;  "`" &amp; C15 &amp; "` " &amp; D15 &amp; IF(E15&gt;0,"(" &amp; E15 &amp; ") "," ") &amp; IF(F15&lt;&gt;"","NOT NULL ","") &amp; IF(G15="","","DEFAULT '" &amp; G15 &amp; "' ")</f>
-        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
-      </c>
-      <c r="J16" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`todocategory_id` INT </v>
+      <c r="I16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E17" s="16">
+        <v>256</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="36" t="str">
-        <f>IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
-        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+        <f t="shared" ref="I17:I22" si="6">IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; "COMMENT '"&amp; B17 &amp;"'," &amp; IF(A17="",""," */")</f>
+        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J17" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
+        <f t="shared" ref="J17:J22" si="7">"," &amp;  "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ")</f>
+        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B18" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="17"/>
       <c r="I18" s="36" t="str">
-        <f>IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; "COMMENT '"&amp; B18 &amp;"'," &amp; IF(A18="",""," */")</f>
-        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+        <f t="shared" si="6"/>
+        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
       <c r="J18" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`todocategory_id` INT </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
       <c r="H19" s="17"/>
       <c r="I19" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f>IF(A19="","","/* ") &amp; "`" &amp; C19 &amp; "` " &amp; D19 &amp; IF(E19&gt;0,"(" &amp; E19 &amp; ") "," ") &amp; IF(F19&lt;&gt;"","NOT NULL ","") &amp; IF(G19="","","DEFAULT '" &amp; G19 &amp; "' ") &amp; "COMMENT '"&amp; B19 &amp;"'," &amp; IF(A19="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
       <c r="J19" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
       <c r="H20" s="17"/>
       <c r="I20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f>IF(A20="","","/* ") &amp; "`" &amp; C20 &amp; "` " &amp; D20 &amp; IF(E20&gt;0,"(" &amp; E20 &amp; ") "," ") &amp; IF(F20&lt;&gt;"","NOT NULL ","") &amp; IF(G20="","","DEFAULT '" &amp; G20 &amp; "' ") &amp; "COMMENT '"&amp; B20 &amp;"'," &amp; IF(A20="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
       <c r="J20" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`completed` DATE </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="I21" s="37" t="s">
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J21" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+      <c r="J22" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`completed` DATE </v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="I23" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J23" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D23" s="30" t="s">
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="51" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
         <v>CREATE TABLE `todohistories` (</v>
       </c>
-      <c r="J24" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C24 &amp; "` ("</f>
+      <c r="J26" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
         <v>CREATE TABLE `todohistories` (</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="16">
-        <v>256</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="36" t="str">
-        <f t="shared" ref="I26:I27" si="4">IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; "COMMENT '"&amp; B26 &amp;"'," &amp; IF(A26="",""," */")</f>
-        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
-      </c>
-      <c r="J26" s="36" t="str">
-        <f t="shared" ref="J26:J31" si="5">"," &amp;  "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ")</f>
-        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
-      </c>
-      <c r="J27" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`todocategory_id` INT </v>
+      <c r="I27" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E28" s="16">
+        <v>256</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36" t="str">
-        <f>IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
-        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
+        <f t="shared" ref="I28:I29" si="8">IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; "COMMENT '"&amp; B28 &amp;"'," &amp; IF(A28="",""," */")</f>
+        <v>`title` VARCHAR(256) NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J28" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
+        <f t="shared" ref="J28:J33" si="9">"," &amp;  "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ")</f>
+        <v xml:space="preserve">,`title` VARCHAR(256) NOT NULL </v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="36" t="str">
-        <f>IF(A29="","","/* ") &amp; "`" &amp; C29 &amp; "` " &amp; D29 &amp; IF(E29&gt;0,"(" &amp; E29 &amp; ") "," ") &amp; IF(F29&lt;&gt;"","NOT NULL ","") &amp; IF(G29="","","DEFAULT '" &amp; G29 &amp; "' ") &amp; "COMMENT '"&amp; B29 &amp;"'," &amp; IF(A29="",""," */")</f>
-        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+        <f t="shared" si="8"/>
+        <v>`todocategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
       <c r="J29" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`todocategory_id` INT </v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
       <c r="H30" s="17"/>
       <c r="I30" s="36" t="str">
-        <f t="shared" ref="I30:I31" si="6">IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f>IF(A30="","","/* ") &amp; "`" &amp; C30 &amp; "` " &amp; D30 &amp; IF(E30&gt;0,"(" &amp; E30 &amp; ") "," ") &amp; IF(F30&lt;&gt;"","NOT NULL ","") &amp; IF(G30="","","DEFAULT '" &amp; G30 &amp; "' ") &amp; "COMMENT '"&amp; B30 &amp;"'," &amp; IF(A30="",""," */")</f>
+        <v>`position` INT DEFAULT '0' COMMENT 'position',</v>
       </c>
       <c r="J30" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`position` INT DEFAULT '0' </v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
       <c r="H31" s="17"/>
       <c r="I31" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>`completed` DATE COMMENT '完了日',</v>
+        <f>IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; "COMMENT '"&amp; B31 &amp;"'," &amp; IF(A31="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
       </c>
       <c r="J31" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`completed` DATE </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
-      <c r="I32" s="37" t="s">
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="36" t="str">
+        <f t="shared" ref="I32:I33" si="10">IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; "COMMENT '"&amp; B32 &amp;"'," &amp; IF(A32="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J32" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v>`completed` DATE COMMENT '完了日',</v>
+      </c>
+      <c r="J33" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`completed` DATE </v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="I34" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J34" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="42" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E36" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F36" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="51" t="s">
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C37" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C37 &amp; "` ("</f>
         <v>CREATE TABLE `memocategories` (</v>
       </c>
-      <c r="J35" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C35 &amp; "` ("</f>
+      <c r="J37" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C37 &amp; "` ("</f>
         <v>CREATE TABLE `memocategories` (</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="16">
-        <v>128</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="36" t="str">
-        <f t="shared" ref="I37:I39" si="7">IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; "COMMENT '"&amp; B37 &amp;"'," &amp; IF(A37="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-      <c r="J37" s="36" t="str">
-        <f t="shared" ref="J37:J39" si="8">"," &amp;  "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ")</f>
-        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>`position` INT NOT NULL COMMENT 'position',</v>
-      </c>
-      <c r="J38" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`position` INT NOT NULL </v>
+      <c r="I38" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
       <c r="B39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E39" s="16">
+        <v>128</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I39:I43" si="11">IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; "COMMENT '"&amp; B39 &amp;"'," &amp; IF(A39="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J39" s="36" t="str">
+        <f t="shared" ref="J39:J43" si="12">"," &amp;  "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`position` INT NOT NULL COMMENT 'position',</v>
+      </c>
+      <c r="J40" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`position` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="36" t="str">
+        <f t="shared" si="11"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-      <c r="J39" s="36" t="str">
-        <f t="shared" si="8"/>
+      <c r="J41" s="36" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="I40" s="37" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '',</v>
+      </c>
+      <c r="J42" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v>`deleted_date` DATETIME COMMENT '',</v>
+      </c>
+      <c r="J43" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="I44" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="J44" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D42" s="30" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D46" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F46" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G46" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H46" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="51" t="s">
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C47" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
         <v>CREATE TABLE `memos` (</v>
       </c>
-      <c r="J43" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+      <c r="J47" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
         <v>CREATE TABLE `memos` (</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="36" t="str">
-        <f t="shared" ref="I45:I50" si="9">IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; "COMMENT '"&amp; B45 &amp;"'," &amp; IF(A45="",""," */")</f>
-        <v>`memocategory_id` INT COMMENT '分類',</v>
-      </c>
-      <c r="J45" s="36" t="str">
-        <f t="shared" ref="J45:J50" si="10">"," &amp;  "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ")</f>
-        <v xml:space="preserve">,`memocategory_id` INT </v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="16">
-        <v>64</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
-      </c>
-      <c r="J46" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`name` VARCHAR(64) NOT NULL </v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`text` TEXT COMMENT 'テキスト',</v>
-      </c>
-      <c r="J47" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`text` TEXT </v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="16">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
-      </c>
-      <c r="J48" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`xyz` VARCHAR(32) </v>
+      <c r="I48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="16">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
       <c r="I49" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+        <f t="shared" ref="I49:I54" si="13">IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; "COMMENT '"&amp; B49 &amp;"'," &amp; IF(A49="",""," */")</f>
+        <v>`memocategory_id` INT COMMENT '分類',</v>
       </c>
       <c r="J49" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`wh` VARCHAR(32) </v>
+        <f t="shared" ref="J49:J54" si="14">"," &amp;  "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ")</f>
+        <v xml:space="preserve">,`memocategory_id` INT </v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
       <c r="B50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E50" s="16">
+        <v>64</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
       <c r="I50" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
+        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J50" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`name` VARCHAR(64) NOT NULL </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`text` TEXT COMMENT 'テキスト',</v>
+      </c>
+      <c r="J51" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`text` TEXT </v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="16">
+        <v>32</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`xyz` VARCHAR(32) COMMENT 'xyz',</v>
+      </c>
+      <c r="J52" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`xyz` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16">
+        <v>32</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>`wh` VARCHAR(32) COMMENT 'wh',</v>
+      </c>
+      <c r="J53" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`wh` VARCHAR(32) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="22"/>
+      <c r="B54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36" t="str">
+        <f t="shared" si="13"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-      <c r="J50" s="36" t="str">
-        <f t="shared" si="10"/>
+      <c r="J54" s="36" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
-      <c r="I51" s="37" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="22"/>
+      <c r="I55" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="J55" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="42" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D57" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E57" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F57" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G57" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="H57" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="51" t="s">
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C58" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C58 &amp; "` ("</f>
         <v>CREATE TABLE `recordcategories` (</v>
       </c>
-      <c r="J54" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C54 &amp; "` ("</f>
+      <c r="J58" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C58 &amp; "` ("</f>
         <v>CREATE TABLE `recordcategories` (</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E59" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="27" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J59" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D60" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E60" s="16">
         <v>128</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F60" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="36" t="str">
-        <f t="shared" ref="I56" si="11">IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; "COMMENT '"&amp; B56 &amp;"'," &amp; IF(A56="",""," */")</f>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="36" t="str">
+        <f t="shared" ref="I60" si="15">IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; "COMMENT '"&amp; B60 &amp;"'," &amp; IF(A60="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-      <c r="J56" s="36" t="str">
-        <f t="shared" ref="J56:J58" si="12">"," &amp;  "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ")</f>
+      <c r="J60" s="36" t="str">
+        <f t="shared" ref="J60:J64" si="16">"," &amp;  "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ")</f>
         <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G61" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="36" t="str">
-        <f>IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; "COMMENT '"&amp; B57 &amp;"'," &amp; IF(A57="",""," */")</f>
+      <c r="H61" s="17"/>
+      <c r="I61" s="36" t="str">
+        <f>IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; "COMMENT '"&amp; B61 &amp;"'," &amp; IF(A61="",""," */")</f>
         <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
-      <c r="J57" s="36" t="str">
-        <f t="shared" si="12"/>
+      <c r="J61" s="36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="22"/>
-      <c r="B58" s="15" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="22"/>
+      <c r="B62" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="36" t="str">
-        <f t="shared" ref="I58" si="13">IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; "COMMENT '"&amp; B58 &amp;"'," &amp; IF(A58="",""," */")</f>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="36" t="str">
+        <f t="shared" ref="I62:I64" si="17">IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; "COMMENT '"&amp; B62 &amp;"'," &amp; IF(A62="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-      <c r="J58" s="36" t="str">
-        <f t="shared" si="12"/>
+      <c r="J62" s="36" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="22"/>
-      <c r="I59" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="H60" s="29"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D61" s="30" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="16">
         <v>4</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
-        <v>CREATE TABLE `records` (</v>
-      </c>
-      <c r="J62" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C62 &amp; "` ("</f>
-        <v>CREATE TABLE `records` (</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>6</v>
-      </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
       <c r="H63" s="17"/>
-      <c r="I63" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>87</v>
+      <c r="I63" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '',</v>
+      </c>
+      <c r="J63" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>78</v>
+      <c r="A64" s="22"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
       <c r="I64" s="36" t="str">
-        <f>IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; "COMMENT '"&amp; B64 &amp;"'," &amp; IF(A64="",""," */")</f>
+        <f t="shared" si="17"/>
+        <v>`deleted_date` DATETIME COMMENT '',</v>
+      </c>
+      <c r="J64" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="22"/>
+      <c r="I65" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="43"/>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D67" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C68 &amp; "` ("</f>
+        <v>CREATE TABLE `records` (</v>
+      </c>
+      <c r="J68" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C68 &amp; "` ("</f>
+        <v>CREATE TABLE `records` (</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="36" t="str">
+        <f>IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; "COMMENT '"&amp; B70 &amp;"'," &amp; IF(A70="",""," */")</f>
         <v>`recordcategory_id` INT COMMENT 'カテゴリ',</v>
       </c>
-      <c r="J64" s="36" t="str">
-        <f t="shared" ref="J64:J68" si="14">"," &amp;  "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ")</f>
+      <c r="J70" s="36" t="str">
+        <f t="shared" ref="J70:J74" si="18">"," &amp;  "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ")</f>
         <v xml:space="preserve">,`recordcategory_id` INT </v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
+      <c r="E71" s="16"/>
+      <c r="F71" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="36" t="str">
-        <f t="shared" ref="I65" si="15">IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; "COMMENT '"&amp; B65 &amp;"'," &amp; IF(A65="",""," */")</f>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="36" t="str">
+        <f t="shared" ref="I71" si="19">IF(A71="","","/* ") &amp; "`" &amp; C71 &amp; "` " &amp; D71 &amp; IF(E71&gt;0,"(" &amp; E71 &amp; ") "," ") &amp; IF(F71&lt;&gt;"","NOT NULL ","") &amp; IF(G71="","","DEFAULT '" &amp; G71 &amp; "' ") &amp; "COMMENT '"&amp; B71 &amp;"'," &amp; IF(A71="",""," */")</f>
         <v>`eventdate` DATE NOT NULL COMMENT '日付',</v>
       </c>
-      <c r="J65" s="36" t="str">
-        <f t="shared" si="14"/>
+      <c r="J71" s="36" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">,`eventdate` DATE NOT NULL </v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="15" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E72" s="16">
         <v>512</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="36" t="str">
-        <f t="shared" ref="I66" si="16">IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; "COMMENT '"&amp; B66 &amp;"'," &amp; IF(A66="",""," */")</f>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="36" t="str">
+        <f t="shared" ref="I72" si="20">IF(A72="","","/* ") &amp; "`" &amp; C72 &amp; "` " &amp; D72 &amp; IF(E72&gt;0,"(" &amp; E72 &amp; ") "," ") &amp; IF(F72&lt;&gt;"","NOT NULL ","") &amp; IF(G72="","","DEFAULT '" &amp; G72 &amp; "' ") &amp; "COMMENT '"&amp; B72 &amp;"'," &amp; IF(A72="",""," */")</f>
         <v>`title` VARCHAR(512) NOT NULL COMMENT '名前',</v>
       </c>
-      <c r="J66" s="36" t="str">
-        <f t="shared" si="14"/>
+      <c r="J72" s="36" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">,`title` VARCHAR(512) NOT NULL </v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="36" t="str">
-        <f>IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; "COMMENT '"&amp; B67 &amp;"'," &amp; IF(A67="",""," */")</f>
-        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
-      </c>
-      <c r="J67" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
-      <c r="B68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="36" t="str">
-        <f t="shared" ref="I68" si="17">IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; "COMMENT '"&amp; B68 &amp;"'," &amp; IF(A68="",""," */")</f>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-      <c r="J68" s="36" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="22"/>
-      <c r="I69" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
-      <c r="H70" s="29"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
-      </c>
-      <c r="J72" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
-        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B73" s="15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="16">
+        <v>0</v>
+      </c>
       <c r="H73" s="17"/>
-      <c r="I73" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>87</v>
+      <c r="I73" s="36" t="str">
+        <f>IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; "COMMENT '"&amp; B73 &amp;"'," &amp; IF(A73="",""," */")</f>
+        <v>`priority` BOOLEAN DEFAULT '0' COMMENT 'priority',</v>
+      </c>
+      <c r="J73" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`priority` BOOLEAN DEFAULT '0' </v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="22"/>
       <c r="B74" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
       <c r="I74" s="36" t="str">
-        <f t="shared" ref="I74:I81" si="18">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
-        <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
+        <f t="shared" ref="I74" si="21">IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; "COMMENT '"&amp; B74 &amp;"'," &amp; IF(A74="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
       <c r="J74" s="36" t="str">
-        <f t="shared" ref="J74:J81" si="19">"," &amp;  "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ")</f>
-        <v xml:space="preserve">,`calendarcategory_id` INT </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="16">
-        <v>128</v>
-      </c>
-      <c r="F75" s="16" t="s">
+      <c r="A75" s="22"/>
+      <c r="I75" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="43"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
-      </c>
-      <c r="J75" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`title` VARCHAR(128) NOT NULL </v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
-      </c>
-      <c r="J76" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`start` DATE NOT NULL </v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`end` DATE COMMENT 'end',</v>
-      </c>
-      <c r="J77" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`end` DATE </v>
-      </c>
+      <c r="G77" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`detail` TEXT COMMENT 'detail',</v>
-      </c>
-      <c r="J78" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`detail` TEXT </v>
+      <c r="B78" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
+      </c>
+      <c r="J78" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+        <v>CREATE TABLE `calendars` (</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B79" s="15" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="16">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`color` VARCHAR(32) COMMENT 'color',</v>
-      </c>
-      <c r="J79" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`color` VARCHAR(32) </v>
+      <c r="I79" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B80" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="16">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
       <c r="I80" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+        <f t="shared" ref="I80:I87" si="22">IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; "COMMENT '"&amp; B80 &amp;"'," &amp; IF(A80="",""," */")</f>
+        <v>`calendarcategory_id` INT COMMENT 'calendars',</v>
       </c>
       <c r="J80" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`textcolor` VARCHAR(32) </v>
+        <f t="shared" ref="J80:J87" si="23">"," &amp;  "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ")</f>
+        <v xml:space="preserve">,`calendarcategory_id` INT </v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
       <c r="B81" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E81" s="16">
+        <v>128</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
       <c r="I81" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>`created` DATETIME COMMENT '登録日',</v>
+        <f t="shared" si="22"/>
+        <v>`title` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J81" s="36" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`title` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
-      <c r="I82" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>88</v>
+      <c r="B82" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`start` DATE NOT NULL COMMENT 'dayofevent',</v>
+      </c>
+      <c r="J82" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`start` DATE NOT NULL </v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`end` DATE COMMENT 'end',</v>
+      </c>
+      <c r="J83" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`end` DATE </v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="42"/>
-      <c r="D84" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
+      <c r="B84" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`detail` TEXT COMMENT 'detail',</v>
+      </c>
+      <c r="J84" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`detail` TEXT </v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
-        <v>CREATE TABLE `calendarcategories` (</v>
-      </c>
-      <c r="J85" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C85 &amp; "` ("</f>
-        <v>CREATE TABLE `calendarcategories` (</v>
+      <c r="B85" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="16">
+        <v>32</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`color` VARCHAR(32) COMMENT 'color',</v>
+      </c>
+      <c r="J85" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`color` VARCHAR(32) </v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B86" s="15" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E86" s="16">
+        <v>32</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>87</v>
+      <c r="I86" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>`textcolor` VARCHAR(32) COMMENT 'textcolor',</v>
+      </c>
+      <c r="J86" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`textcolor` VARCHAR(32) </v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="22"/>
       <c r="B87" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="16">
-        <v>128</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
       <c r="I87" s="36" t="str">
-        <f t="shared" ref="I87:I89" si="20">IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; "COMMENT '"&amp; B87 &amp;"'," &amp; IF(A87="",""," */")</f>
+        <f t="shared" si="22"/>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J87" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="22"/>
+      <c r="I88" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B90" s="42"/>
+      <c r="D90" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B91" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="33"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C91 &amp; "` ("</f>
+        <v>CREATE TABLE `calendarcategories` (</v>
+      </c>
+      <c r="J91" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C91 &amp; "` ("</f>
+        <v>CREATE TABLE `calendarcategories` (</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B92" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B93" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="16">
+        <v>128</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="36" t="str">
+        <f t="shared" ref="I93:I97" si="24">IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; "COMMENT '"&amp; B93 &amp;"'," &amp; IF(A93="",""," */")</f>
         <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
       </c>
-      <c r="J87" s="36" t="str">
-        <f t="shared" ref="J87:J89" si="21">"," &amp;  "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ")</f>
+      <c r="J93" s="36" t="str">
+        <f>"," &amp;  "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ")</f>
         <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="15" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B94" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D94" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16" t="s">
+      <c r="E94" s="16"/>
+      <c r="F94" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="36" t="str">
+        <f t="shared" si="24"/>
         <v>`position` INT NOT NULL COMMENT 'position',</v>
       </c>
-      <c r="J88" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="J94" s="36" t="str">
+        <f t="shared" ref="J94:J97" si="25">"," &amp;  "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ")</f>
         <v xml:space="preserve">,`position` INT NOT NULL </v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="22"/>
-      <c r="B89" s="15" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="22"/>
+      <c r="B95" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C95" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="36" t="str">
+        <f t="shared" si="24"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
-      <c r="J89" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="J95" s="36" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="22"/>
-      <c r="I90" s="37" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="22"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="16">
+        <v>4</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16">
+        <v>0</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="36" t="str">
+        <f t="shared" si="24"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '',</v>
+      </c>
+      <c r="J96" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="22"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="36" t="str">
+        <f t="shared" si="24"/>
+        <v>`deleted_date` DATETIME COMMENT '',</v>
+      </c>
+      <c r="J97" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="22"/>
+      <c r="I98" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J90" s="37" t="s">
+      <c r="J98" s="37" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B15 B22 B11 B33 B68:B69 B92:B1048576">
-    <cfRule type="expression" dxfId="57" priority="211">
+  <conditionalFormatting sqref="B1:B3 B17 B24 B13 B35 B74:B75 B100:B1048576">
+    <cfRule type="expression" dxfId="65" priority="219">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
-    <cfRule type="expression" dxfId="56" priority="82">
+  <conditionalFormatting sqref="B21:B23">
+    <cfRule type="expression" dxfId="64" priority="90">
+      <formula>A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="expression" dxfId="63" priority="89">
+      <formula>A14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="62" priority="88">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
-    <cfRule type="expression" dxfId="55" priority="81">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="61" priority="86">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="54" priority="80">
-      <formula>A17&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="60" priority="85">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="59" priority="83">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="58" priority="82">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="57" priority="81">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="expression" dxfId="56" priority="78">
+      <formula>A25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="55" priority="75">
+      <formula>A20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="54" priority="74">
+      <formula>A28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B34">
+    <cfRule type="expression" dxfId="53" priority="73">
+      <formula>A32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="52" priority="72">
+      <formula>A27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="51" priority="71">
+      <formula>A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="50" priority="70">
+      <formula>A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="49" priority="69">
+      <formula>A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45 B56">
+    <cfRule type="expression" dxfId="48" priority="57">
+      <formula>A45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="47" priority="56">
+      <formula>A44&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="expression" dxfId="46" priority="55">
+      <formula>A38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="45" priority="54">
+      <formula>A40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="44" priority="53">
+      <formula>A37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="43" priority="52">
+      <formula>A41&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="42" priority="51">
+      <formula>A36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B55">
+    <cfRule type="expression" dxfId="41" priority="50">
+      <formula>A54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46 B50:B52 B48">
+    <cfRule type="expression" dxfId="40" priority="49">
+      <formula>A46&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="39" priority="48">
+      <formula>A53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="38" priority="47">
+      <formula>A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72 B76 B66">
+    <cfRule type="expression" dxfId="36" priority="45">
+      <formula>A66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:B69">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>A67&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>A65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B60">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>A57&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>A62&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="31" priority="38">
+      <formula>A70&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="expression" dxfId="30" priority="37">
+      <formula>A61&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="29" priority="36">
+      <formula>A73&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="28" priority="35">
+      <formula>A71&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>A88&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81 B79">
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>A79&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>A89&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>A82&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>A87&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>A77&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90 B92:B93">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>A94&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>A95&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>A91&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="53" priority="78">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="52" priority="77">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="51" priority="75">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="50" priority="74">
-      <formula>A16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="73">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="48" priority="70">
-      <formula>A23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="47" priority="67">
-      <formula>A18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="46" priority="66">
-      <formula>A26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="45" priority="65">
-      <formula>A30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="44" priority="64">
-      <formula>A25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="43" priority="63">
-      <formula>A28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="42" priority="62">
-      <formula>A27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="41" priority="61">
-      <formula>A29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 B52">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>A41&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>A40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="38" priority="47">
-      <formula>A36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="37" priority="46">
-      <formula>A38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>A35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>A39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="34" priority="43">
-      <formula>A34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="33" priority="42">
-      <formula>A50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B46:B48 B44">
-    <cfRule type="expression" dxfId="32" priority="41">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>A49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>A45&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66 B70 B60">
-    <cfRule type="expression" dxfId="28" priority="37">
-      <formula>A60&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B63">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>A61&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="26" priority="33">
-      <formula>A59&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>A53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>A58&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>A63&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="22" priority="29">
-      <formula>A57&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>A67&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>A65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>A82&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 B73">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>A73&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>A76&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>A81&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>A79&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>A77&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>A74&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>A71&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>A72&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 B86:B87">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>A84&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>A88&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>A89&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>A85&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A97&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>TINYINT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1010,497 +1014,7 @@
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <b/>
@@ -1508,6 +1022,454 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1525,8 +1487,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="71"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="70"/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -1822,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:E96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3265,11 +3227,9 @@
         <v>53</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="16">
-        <v>512</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
         <v>7</v>
       </c>
@@ -3277,11 +3237,11 @@
       <c r="H72" s="17"/>
       <c r="I72" s="36" t="str">
         <f t="shared" ref="I72" si="20">IF(A72="","","/* ") &amp; "`" &amp; C72 &amp; "` " &amp; D72 &amp; IF(E72&gt;0,"(" &amp; E72 &amp; ") "," ") &amp; IF(F72&lt;&gt;"","NOT NULL ","") &amp; IF(G72="","","DEFAULT '" &amp; G72 &amp; "' ") &amp; "COMMENT '"&amp; B72 &amp;"'," &amp; IF(A72="",""," */")</f>
-        <v>`title` VARCHAR(512) NOT NULL COMMENT '名前',</v>
+        <v>`title` TEXT NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J72" s="36" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">,`title` VARCHAR(512) NOT NULL </v>
+        <v xml:space="preserve">,`title` TEXT NOT NULL </v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -4131,7 +4091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>A97&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="113">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -456,6 +456,97 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelog</t>
+  </si>
+  <si>
+    <t>timelog</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogcategory</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogcategories</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogs</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除日</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogcategory_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>workdate</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogtask</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogtasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timelogtask_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>worktime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5,2</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1014,7 +1105,7 @@
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="87">
     <dxf>
       <font>
         <b/>
@@ -1022,6 +1113,153 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1782,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3773,326 +4011,1094 @@
         <v>88</v>
       </c>
     </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B100" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B101" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C101 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogcategories` (</v>
+      </c>
+      <c r="J101" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C101 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogcategories` (</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B102" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B103" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="16">
+        <v>128</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="36" t="str">
+        <f t="shared" ref="I103" si="26">IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; "COMMENT '"&amp; B103 &amp;"'," &amp; IF(A103="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J103" s="36" t="str">
+        <f t="shared" ref="J103:J107" si="27">"," &amp;  "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B104" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="16">
+        <v>0</v>
+      </c>
+      <c r="H104" s="17"/>
+      <c r="I104" s="36" t="str">
+        <f>IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; "COMMENT '"&amp; B104 &amp;"'," &amp; IF(A104="",""," */")</f>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+      </c>
+      <c r="J104" s="36" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="22"/>
+      <c r="B105" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="36" t="str">
+        <f t="shared" ref="I105:I107" si="28">IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; "COMMENT '"&amp; B105 &amp;"'," &amp; IF(A105="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J105" s="36" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="22"/>
+      <c r="B106" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="16">
+        <v>4</v>
+      </c>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16">
+        <v>0</v>
+      </c>
+      <c r="H106" s="17"/>
+      <c r="I106" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+      <c r="J106" s="36" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="22"/>
+      <c r="B107" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+      <c r="J107" s="36" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="22"/>
+      <c r="I108" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="43"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D110" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B111" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogs` (</v>
+      </c>
+      <c r="J111" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogs` (</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B113" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="36" t="str">
+        <f>IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
+        <v>`timelogcategory_id` INT COMMENT 'カテゴリ',</v>
+      </c>
+      <c r="J113" s="36" t="str">
+        <f t="shared" ref="J113:J118" si="29">"," &amp;  "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ")</f>
+        <v xml:space="preserve">,`timelogcategory_id` INT </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B114" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="36" t="str">
+        <f>IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; "COMMENT '"&amp; B114 &amp;"'," &amp; IF(A114="",""," */")</f>
+        <v>`timelogtask_id` INT COMMENT 'タスク',</v>
+      </c>
+      <c r="J114" s="36" t="str">
+        <f t="shared" ref="J114" si="30">"," &amp;  "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ")</f>
+        <v xml:space="preserve">,`timelogtask_id` INT </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B115" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115" s="16"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="36" t="str">
+        <f t="shared" ref="I115:I117" si="31">IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; "COMMENT '"&amp; B115 &amp;"'," &amp; IF(A115="",""," */")</f>
+        <v>`workdate` DATE NOT NULL COMMENT '日付',</v>
+      </c>
+      <c r="J115" s="36" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`workdate` DATE NOT NULL </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B116" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="36" t="str">
+        <f t="shared" ref="I116" si="32">IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; "COMMENT '"&amp; B116 &amp;"'," &amp; IF(A116="",""," */")</f>
+        <v>`worktime` DECIMAL(5,2) NOT NULL COMMENT '時間',</v>
+      </c>
+      <c r="J116" s="36" t="str">
+        <f t="shared" ref="J116" si="33">"," &amp;  "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ")</f>
+        <v xml:space="preserve">,`worktime` DECIMAL(5,2) NOT NULL </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B117" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="16">
+        <v>256</v>
+      </c>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>`title` VARCHAR(256) COMMENT '名前',</v>
+      </c>
+      <c r="J117" s="36" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`title` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A118" s="22"/>
+      <c r="B118" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="36" t="str">
+        <f t="shared" ref="I118" si="34">IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; "COMMENT '"&amp; B118 &amp;"'," &amp; IF(A118="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J118" s="36" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A119" s="22"/>
+      <c r="B119" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="36" t="str">
+        <f t="shared" ref="I119" si="35">IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; "COMMENT '"&amp; B119 &amp;"'," &amp; IF(A119="",""," */")</f>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
+      </c>
+      <c r="J119" s="36" t="str">
+        <f t="shared" ref="J119" si="36">"," &amp;  "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ")</f>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A120" s="22"/>
+      <c r="I120" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J120" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="43"/>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B122" s="42"/>
+      <c r="D122" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B123" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C123 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogtasks` (</v>
+      </c>
+      <c r="J123" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C123 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogtasks` (</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B124" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B125" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="16">
+        <v>128</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="16"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="36" t="str">
+        <f t="shared" ref="I125" si="37">IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; "COMMENT '"&amp; B125 &amp;"'," &amp; IF(A125="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J125" s="36" t="str">
+        <f t="shared" ref="J125:J129" si="38">"," &amp;  "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B126" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126" s="16">
+        <v>0</v>
+      </c>
+      <c r="H126" s="17"/>
+      <c r="I126" s="36" t="str">
+        <f>IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; "COMMENT '"&amp; B126 &amp;"'," &amp; IF(A126="",""," */")</f>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+      </c>
+      <c r="J126" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A127" s="22"/>
+      <c r="B127" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="36" t="str">
+        <f t="shared" ref="I127:I129" si="39">IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; "COMMENT '"&amp; B127 &amp;"'," &amp; IF(A127="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J127" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A128" s="22"/>
+      <c r="B128" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="16">
+        <v>4</v>
+      </c>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17"/>
+      <c r="I128" s="36" t="str">
+        <f t="shared" si="39"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+      <c r="J128" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="22"/>
+      <c r="B129" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="36" t="str">
+        <f t="shared" si="39"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
+      </c>
+      <c r="J129" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A130" s="22"/>
+      <c r="I130" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="43"/>
+      <c r="H131" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B17 B24 B13 B35 B74:B75 B100:B1048576">
-    <cfRule type="expression" dxfId="65" priority="219">
+  <conditionalFormatting sqref="B1:B3 B17 B24 B13 B35 B74:B75 B132:B1048576">
+    <cfRule type="expression" dxfId="86" priority="241">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B23">
-    <cfRule type="expression" dxfId="64" priority="90">
+    <cfRule type="expression" dxfId="85" priority="112">
       <formula>A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="expression" dxfId="63" priority="89">
+    <cfRule type="expression" dxfId="84" priority="111">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="62" priority="88">
+    <cfRule type="expression" dxfId="83" priority="110">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="61" priority="86">
+    <cfRule type="expression" dxfId="82" priority="108">
       <formula>A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="60" priority="85">
+    <cfRule type="expression" dxfId="81" priority="107">
       <formula>A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="80" priority="105">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="58" priority="82">
+    <cfRule type="expression" dxfId="79" priority="104">
       <formula>A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="57" priority="81">
+    <cfRule type="expression" dxfId="78" priority="103">
       <formula>A8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="expression" dxfId="56" priority="78">
+    <cfRule type="expression" dxfId="77" priority="100">
       <formula>A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="55" priority="75">
+    <cfRule type="expression" dxfId="76" priority="97">
       <formula>A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="54" priority="74">
+    <cfRule type="expression" dxfId="75" priority="96">
       <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="53" priority="73">
+    <cfRule type="expression" dxfId="74" priority="95">
       <formula>A32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="52" priority="72">
+    <cfRule type="expression" dxfId="73" priority="94">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="51" priority="71">
+    <cfRule type="expression" dxfId="72" priority="93">
       <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="50" priority="70">
+    <cfRule type="expression" dxfId="71" priority="92">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="49" priority="69">
+    <cfRule type="expression" dxfId="70" priority="91">
       <formula>A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45 B56">
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="47" priority="56">
+    <cfRule type="expression" dxfId="68" priority="78">
       <formula>A44&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="expression" dxfId="46" priority="55">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="44" priority="53">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="64" priority="74">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="63" priority="73">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="expression" dxfId="41" priority="50">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>A54&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 B50:B52 B48">
-    <cfRule type="expression" dxfId="40" priority="49">
+    <cfRule type="expression" dxfId="61" priority="71">
       <formula>A46&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="39" priority="48">
+    <cfRule type="expression" dxfId="60" priority="70">
       <formula>A53&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="37" priority="46">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>A47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72 B76 B66">
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="57" priority="67">
       <formula>A66&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="56" priority="65">
       <formula>A67&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="34" priority="41">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="expression" dxfId="33" priority="40">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>A57&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="32" priority="39">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>A62&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="31" priority="38">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>A70&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="50" priority="58">
       <formula>A73&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>A71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>A88&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81 B79">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>A79&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>A89&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>A82&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="44" priority="47">
       <formula>A87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>A85&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>A83&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>A86&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>A80&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>A84&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>A77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>A78&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>A98&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90 B92:B93">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>A90&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>A99&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>A94&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>A95&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>A91&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>A42&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>A43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>A63&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>A64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>A96&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>A97&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107">
+    <cfRule type="expression" dxfId="22" priority="11">
+      <formula>A107&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118 B120">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>A118&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117 B121 B109">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>A109&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:B112">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>A110&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>A108&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B103">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>A100&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>A78&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>A98&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90 B92:B93">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>A90&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+      <formula>A105&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>A113&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>A104&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>A99&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+      <formula>A115&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>A94&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>A95&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>A91&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>A10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>A11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>A42&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>A43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>A63&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+      <formula>A106&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>A129&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>A131&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>A130&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:B125">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>A122&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>A127&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>A126&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>A128&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>A64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+      <formula>A114&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A96&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+      <formula>A119&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>A97&lt;&gt;""</formula>
+      <formula>A116&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_notebook_definition.xlsx
+++ b/db_notebook_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="119">
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
@@ -547,6 +547,33 @@
   </si>
   <si>
     <t>5,2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>day</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1105,7 +1132,707 @@
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="良い" xfId="6" builtinId="26"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1113,601 +1840,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1725,8 +1857,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル133" displayName="テーブル133" ref="B6:F26" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="1"/>
-    <tableColumn id="2" name="テーブル" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="101"/>
+    <tableColumn id="2" name="テーブル" dataDxfId="100"/>
     <tableColumn id="3" name="テーブル名"/>
     <tableColumn id="5" name="インデックス" dataCellStyle="標準 2"/>
     <tableColumn id="4" name="用途"/>
@@ -2020,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4012,9 +4144,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="B100" s="42"/>
       <c r="D100" s="30" t="s">
         <v>4</v>
       </c>
@@ -4035,10 +4165,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B101" s="51" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="34"/>
@@ -4047,11 +4177,11 @@
       <c r="H101" s="35"/>
       <c r="I101" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C101 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogcategories` (</v>
+        <v>CREATE TABLE `holidays` (</v>
       </c>
       <c r="J101" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C101 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogcategories` (</v>
+        <v>CREATE TABLE `holidays` (</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -4088,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="16">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>7</v>
@@ -4096,39 +4226,37 @@
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
       <c r="I103" s="36" t="str">
-        <f t="shared" ref="I103" si="26">IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; "COMMENT '"&amp; B103 &amp;"'," &amp; IF(A103="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I103:I106" si="26">IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; "COMMENT '"&amp; B103 &amp;"'," &amp; IF(A103="",""," */")</f>
+        <v>`name` VARCHAR(64) NOT NULL COMMENT '名前',</v>
       </c>
       <c r="J103" s="36" t="str">
-        <f t="shared" ref="J103:J107" si="27">"," &amp;  "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ")</f>
-        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+        <f>"," &amp;  "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) NOT NULL </v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B104" s="15" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G104" s="16">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G104" s="16"/>
       <c r="H104" s="17"/>
       <c r="I104" s="36" t="str">
-        <f>IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; "COMMENT '"&amp; B104 &amp;"'," &amp; IF(A104="",""," */")</f>
-        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+        <f t="shared" si="26"/>
+        <v>`day` DATE NOT NULL COMMENT 'day',</v>
       </c>
       <c r="J104" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+        <f t="shared" ref="J104:J106" si="27">"," &amp;  "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ")</f>
+        <v xml:space="preserve">,`day` DATE NOT NULL </v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
@@ -4147,7 +4275,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="17"/>
       <c r="I105" s="36" t="str">
-        <f t="shared" ref="I105:I107" si="28">IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; "COMMENT '"&amp; B105 &amp;"'," &amp; IF(A105="",""," */")</f>
+        <f t="shared" si="26"/>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
       <c r="J105" s="36" t="str">
@@ -4158,391 +4286,391 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="22"/>
       <c r="B106" s="15" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="16">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E106" s="16"/>
       <c r="F106" s="16"/>
-      <c r="G106" s="16">
-        <v>0</v>
-      </c>
+      <c r="G106" s="16"/>
       <c r="H106" s="17"/>
       <c r="I106" s="36" t="str">
-        <f t="shared" si="28"/>
-        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" si="26"/>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
       <c r="J106" s="36" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="22"/>
-      <c r="B107" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="36" t="str">
-        <f t="shared" si="28"/>
-        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
-      </c>
-      <c r="J107" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`deleted_date` DATETIME </v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="22"/>
-      <c r="I108" s="37" t="s">
+      <c r="I107" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J108" s="37" t="s">
+      <c r="J107" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="43"/>
-      <c r="H109" s="29"/>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B109" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D110" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
+      <c r="B110" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogcategories` (</v>
+      </c>
+      <c r="J110" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogcategories` (</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B111" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="33"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogs` (</v>
-      </c>
-      <c r="J111" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogs` (</v>
+      <c r="B111" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E112" s="16">
+        <v>128</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G112" s="16"/>
       <c r="H112" s="17"/>
-      <c r="I112" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J112" s="27" t="s">
-        <v>87</v>
+      <c r="I112" s="36" t="str">
+        <f t="shared" ref="I112" si="28">IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; "COMMENT '"&amp; B112 &amp;"'," &amp; IF(A112="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J112" s="36" t="str">
+        <f t="shared" ref="J112:J116" si="29">"," &amp;  "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B113" s="15" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
+      <c r="F113" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113" s="16">
+        <v>0</v>
+      </c>
       <c r="H113" s="17"/>
       <c r="I113" s="36" t="str">
         <f>IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; "COMMENT '"&amp; B113 &amp;"'," &amp; IF(A113="",""," */")</f>
-        <v>`timelogcategory_id` INT COMMENT 'カテゴリ',</v>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
       </c>
       <c r="J113" s="36" t="str">
-        <f t="shared" ref="J113:J118" si="29">"," &amp;  "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ")</f>
-        <v xml:space="preserve">,`timelogcategory_id` INT </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="22"/>
       <c r="B114" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
       <c r="H114" s="17"/>
       <c r="I114" s="36" t="str">
-        <f>IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; "COMMENT '"&amp; B114 &amp;"'," &amp; IF(A114="",""," */")</f>
-        <v>`timelogtask_id` INT COMMENT 'タスク',</v>
+        <f t="shared" ref="I114:I116" si="30">IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; "COMMENT '"&amp; B114 &amp;"'," &amp; IF(A114="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
       <c r="J114" s="36" t="str">
-        <f t="shared" ref="J114" si="30">"," &amp;  "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ")</f>
-        <v xml:space="preserve">,`timelogtask_id` INT </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="22"/>
       <c r="B115" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G115" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="E115" s="16">
+        <v>4</v>
+      </c>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16">
+        <v>0</v>
+      </c>
       <c r="H115" s="17"/>
       <c r="I115" s="36" t="str">
-        <f t="shared" ref="I115:I117" si="31">IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; "COMMENT '"&amp; B115 &amp;"'," &amp; IF(A115="",""," */")</f>
-        <v>`workdate` DATE NOT NULL COMMENT '日付',</v>
+        <f t="shared" si="30"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
       </c>
       <c r="J115" s="36" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">,`workdate` DATE NOT NULL </v>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="22"/>
       <c r="B116" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="16"/>
       <c r="H116" s="17"/>
       <c r="I116" s="36" t="str">
-        <f t="shared" ref="I116" si="32">IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; "COMMENT '"&amp; B116 &amp;"'," &amp; IF(A116="",""," */")</f>
-        <v>`worktime` DECIMAL(5,2) NOT NULL COMMENT '時間',</v>
+        <f t="shared" si="30"/>
+        <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
       <c r="J116" s="36" t="str">
-        <f t="shared" ref="J116" si="33">"," &amp;  "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ")</f>
-        <v xml:space="preserve">,`worktime` DECIMAL(5,2) NOT NULL </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`deleted_date` DATETIME </v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B117" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" s="16">
-        <v>256</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="36" t="str">
-        <f t="shared" si="31"/>
-        <v>`title` VARCHAR(256) COMMENT '名前',</v>
-      </c>
-      <c r="J117" s="36" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`title` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="22"/>
-      <c r="B118" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="36" t="str">
-        <f t="shared" ref="I118" si="34">IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; "COMMENT '"&amp; B118 &amp;"'," &amp; IF(A118="",""," */")</f>
-        <v>`created` DATETIME COMMENT '登録日',</v>
-      </c>
-      <c r="J118" s="36" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
+      <c r="A117" s="22"/>
+      <c r="I117" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="43"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="22"/>
-      <c r="B119" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="36" t="str">
-        <f t="shared" ref="I119" si="35">IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; "COMMENT '"&amp; B119 &amp;"'," &amp; IF(A119="",""," */")</f>
-        <v>`modified` DATETIME COMMENT '変更日',</v>
-      </c>
-      <c r="J119" s="36" t="str">
-        <f t="shared" ref="J119" si="36">"," &amp;  "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ")</f>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
+      <c r="D119" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="22"/>
-      <c r="I120" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J120" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="43"/>
-      <c r="H121" s="29"/>
+      <c r="B120" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C120 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogs` (</v>
+      </c>
+      <c r="J120" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C120 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogs` (</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B121" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J121" s="27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B122" s="42"/>
-      <c r="D122" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" s="30"/>
-      <c r="J122" s="30"/>
+      <c r="B122" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="36" t="str">
+        <f>IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; "COMMENT '"&amp; B122 &amp;"'," &amp; IF(A122="",""," */")</f>
+        <v>`timelogcategory_id` INT COMMENT 'カテゴリ',</v>
+      </c>
+      <c r="J122" s="36" t="str">
+        <f t="shared" ref="J122:J127" si="31">"," &amp;  "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ")</f>
+        <v xml:space="preserve">,`timelogcategory_id` INT </v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B123" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C123" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D123" s="33"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C123 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogtasks` (</v>
-      </c>
-      <c r="J123" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C123 &amp; "` ("</f>
-        <v>CREATE TABLE `timelogtasks` (</v>
+      <c r="B123" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="36" t="str">
+        <f>IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; "COMMENT '"&amp; B123 &amp;"'," &amp; IF(A123="",""," */")</f>
+        <v>`timelogtask_id` INT COMMENT 'タスク',</v>
+      </c>
+      <c r="J123" s="36" t="str">
+        <f t="shared" ref="J123" si="32">"," &amp;  "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ")</f>
+        <v xml:space="preserve">,`timelogtask_id` INT </v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B124" s="15" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
-      <c r="I124" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J124" s="27" t="s">
-        <v>87</v>
+      <c r="I124" s="36" t="str">
+        <f t="shared" ref="I124:I126" si="33">IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; "COMMENT '"&amp; B124 &amp;"'," &amp; IF(A124="",""," */")</f>
+        <v>`workdate` DATE NOT NULL COMMENT '日付',</v>
+      </c>
+      <c r="J124" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`workdate` DATE NOT NULL </v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B125" s="15" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="16">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>7</v>
@@ -4550,39 +4678,37 @@
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
       <c r="I125" s="36" t="str">
-        <f t="shared" ref="I125" si="37">IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; "COMMENT '"&amp; B125 &amp;"'," &amp; IF(A125="",""," */")</f>
-        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+        <f t="shared" ref="I125" si="34">IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; "COMMENT '"&amp; B125 &amp;"'," &amp; IF(A125="",""," */")</f>
+        <v>`worktime` DECIMAL(5,2) NOT NULL COMMENT '時間',</v>
       </c>
       <c r="J125" s="36" t="str">
-        <f t="shared" ref="J125:J129" si="38">"," &amp;  "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ")</f>
-        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+        <f t="shared" ref="J125" si="35">"," &amp;  "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ")</f>
+        <v xml:space="preserve">,`worktime` DECIMAL(5,2) NOT NULL </v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B126" s="15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G126" s="16">
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E126" s="16">
+        <v>256</v>
+      </c>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
       <c r="H126" s="17"/>
       <c r="I126" s="36" t="str">
-        <f>IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; "COMMENT '"&amp; B126 &amp;"'," &amp; IF(A126="",""," */")</f>
-        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+        <f t="shared" si="33"/>
+        <v>`title` VARCHAR(256) COMMENT '名前',</v>
       </c>
       <c r="J126" s="36" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`title` VARCHAR(256) </v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -4601,504 +4727,718 @@
       <c r="G127" s="16"/>
       <c r="H127" s="17"/>
       <c r="I127" s="36" t="str">
-        <f t="shared" ref="I127:I129" si="39">IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; "COMMENT '"&amp; B127 &amp;"'," &amp; IF(A127="",""," */")</f>
+        <f t="shared" ref="I127" si="36">IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; "COMMENT '"&amp; B127 &amp;"'," &amp; IF(A127="",""," */")</f>
         <v>`created` DATETIME COMMENT '登録日',</v>
       </c>
       <c r="J127" s="36" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="22"/>
       <c r="B128" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E128" s="16">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E128" s="16"/>
       <c r="F128" s="16"/>
-      <c r="G128" s="16">
-        <v>0</v>
-      </c>
+      <c r="G128" s="16"/>
       <c r="H128" s="17"/>
       <c r="I128" s="36" t="str">
-        <f t="shared" si="39"/>
-        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
+        <f t="shared" ref="I128" si="37">IF(A128="","","/* ") &amp; "`" &amp; C128 &amp; "` " &amp; D128 &amp; IF(E128&gt;0,"(" &amp; E128 &amp; ") "," ") &amp; IF(F128&lt;&gt;"","NOT NULL ","") &amp; IF(G128="","","DEFAULT '" &amp; G128 &amp; "' ") &amp; "COMMENT '"&amp; B128 &amp;"'," &amp; IF(A128="",""," */")</f>
+        <v>`modified` DATETIME COMMENT '変更日',</v>
       </c>
       <c r="J128" s="36" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+        <f t="shared" ref="J128" si="38">"," &amp;  "`" &amp; C128 &amp; "` " &amp; D128 &amp; IF(E128&gt;0,"(" &amp; E128 &amp; ") "," ") &amp; IF(F128&lt;&gt;"","NOT NULL ","") &amp; IF(G128="","","DEFAULT '" &amp; G128 &amp; "' ")</f>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="22"/>
-      <c r="B129" s="15" t="s">
+      <c r="I129" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A130" s="43"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B131" s="42"/>
+      <c r="D131" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B132" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogtasks` (</v>
+      </c>
+      <c r="J132" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `timelogtasks` (</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B133" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J133" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B134" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="16">
+        <v>128</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="16"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="36" t="str">
+        <f t="shared" ref="I134" si="39">IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; "COMMENT '"&amp; B134 &amp;"'," &amp; IF(A134="",""," */")</f>
+        <v>`name` VARCHAR(128) NOT NULL COMMENT '名前',</v>
+      </c>
+      <c r="J134" s="36" t="str">
+        <f t="shared" ref="J134:J138" si="40">"," &amp;  "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ")</f>
+        <v xml:space="preserve">,`name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B135" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G135" s="16">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17"/>
+      <c r="I135" s="36" t="str">
+        <f>IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; "COMMENT '"&amp; B135 &amp;"'," &amp; IF(A135="",""," */")</f>
+        <v>`position` INT NOT NULL DEFAULT '0' COMMENT 'position',</v>
+      </c>
+      <c r="J135" s="36" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`position` INT NOT NULL DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A136" s="22"/>
+      <c r="B136" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="36" t="str">
+        <f t="shared" ref="I136:I138" si="41">IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; "COMMENT '"&amp; B136 &amp;"'," &amp; IF(A136="",""," */")</f>
+        <v>`created` DATETIME COMMENT '登録日',</v>
+      </c>
+      <c r="J136" s="36" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A137" s="22"/>
+      <c r="B137" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="16">
+        <v>4</v>
+      </c>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16">
+        <v>0</v>
+      </c>
+      <c r="H137" s="17"/>
+      <c r="I137" s="36" t="str">
+        <f t="shared" si="41"/>
+        <v>`deleted` TINYINT(4) DEFAULT '0' COMMENT '削除フラグ',</v>
+      </c>
+      <c r="J137" s="36" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`deleted` TINYINT(4) DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A138" s="22"/>
+      <c r="B138" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D138" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="36" t="str">
-        <f t="shared" si="39"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="36" t="str">
+        <f t="shared" si="41"/>
         <v>`deleted_date` DATETIME COMMENT '削除日',</v>
       </c>
-      <c r="J129" s="36" t="str">
-        <f t="shared" si="38"/>
+      <c r="J138" s="36" t="str">
+        <f t="shared" si="40"/>
         <v xml:space="preserve">,`deleted_date` DATETIME </v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="22"/>
-      <c r="I130" s="37" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A139" s="22"/>
+      <c r="I139" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J130" s="37" t="s">
+      <c r="J139" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="43"/>
-      <c r="H131" s="29"/>
+    <row r="140" spans="1:10" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A140" s="43"/>
+      <c r="H140" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="B1:B3 B17 B24 B13 B35 B74:B75 B132:B1048576">
-    <cfRule type="expression" dxfId="86" priority="241">
+  <conditionalFormatting sqref="B1:B3 B17 B24 B13 B35 B74:B75 B141:B1048576">
+    <cfRule type="expression" dxfId="91" priority="249">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B23">
-    <cfRule type="expression" dxfId="85" priority="112">
+    <cfRule type="expression" dxfId="90" priority="120">
       <formula>A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="expression" dxfId="84" priority="111">
+    <cfRule type="expression" dxfId="89" priority="119">
       <formula>A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="83" priority="110">
+    <cfRule type="expression" dxfId="88" priority="118">
       <formula>A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="87" priority="116">
+      <formula>A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="86" priority="115">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="85" priority="113">
+      <formula>A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="84" priority="112">
+      <formula>A18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="83" priority="111">
+      <formula>A8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
     <cfRule type="expression" dxfId="82" priority="108">
-      <formula>A12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="81" priority="107">
-      <formula>A4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="80" priority="105">
-      <formula>A9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="79" priority="104">
-      <formula>A18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="78" priority="103">
-      <formula>A8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
-    <cfRule type="expression" dxfId="77" priority="100">
       <formula>A25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="76" priority="97">
+    <cfRule type="expression" dxfId="81" priority="105">
       <formula>A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="75" priority="96">
+    <cfRule type="expression" dxfId="80" priority="104">
       <formula>A28&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="74" priority="95">
+    <cfRule type="expression" dxfId="79" priority="103">
       <formula>A32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="73" priority="94">
+    <cfRule type="expression" dxfId="78" priority="102">
       <formula>A27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="72" priority="93">
+    <cfRule type="expression" dxfId="77" priority="101">
       <formula>A30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="71" priority="92">
+    <cfRule type="expression" dxfId="76" priority="100">
       <formula>A29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="70" priority="91">
+    <cfRule type="expression" dxfId="75" priority="99">
       <formula>A31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45 B56">
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="74" priority="87">
       <formula>A45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="68" priority="78">
+    <cfRule type="expression" dxfId="73" priority="86">
       <formula>A44&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="72" priority="85">
       <formula>A38&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="71" priority="84">
       <formula>A40&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="70" priority="83">
       <formula>A37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="64" priority="74">
+    <cfRule type="expression" dxfId="69" priority="82">
       <formula>A41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="63" priority="73">
+    <cfRule type="expression" dxfId="68" priority="81">
       <formula>A36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="expression" dxfId="62" priority="72">
+    <cfRule type="expression" dxfId="67" priority="80">
       <formula>A54&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 B50:B52 B48">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="66" priority="79">
       <formula>A46&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="60" priority="70">
+    <cfRule type="expression" dxfId="65" priority="78">
       <formula>A53&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="64" priority="77">
       <formula>A49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="63" priority="76">
       <formula>A47&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72 B76 B66">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="62" priority="75">
       <formula>A66&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B69">
-    <cfRule type="expression" dxfId="56" priority="65">
+    <cfRule type="expression" dxfId="61" priority="73">
       <formula>A67&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="55" priority="63">
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>A65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="59" priority="70">
       <formula>A57&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>A62&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>A70&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="55" priority="66">
       <formula>A73&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>A71&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>A88&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81 B79">
-    <cfRule type="expression" dxfId="47" priority="50">
+    <cfRule type="expression" dxfId="52" priority="58">
       <formula>A79&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>A89&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>A82&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>A87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>A85&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="47" priority="53">
+      <formula>A83&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>A86&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>A80&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>A84&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
     <cfRule type="expression" dxfId="43" priority="46">
-      <formula>A85&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="expression" dxfId="42" priority="45">
-      <formula>A83&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="41" priority="44">
-      <formula>A86&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="40" priority="43">
-      <formula>A80&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="39" priority="42">
-      <formula>A84&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="38" priority="38">
       <formula>A77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>A78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>A98&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90 B92:B93">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>A90&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>A99&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>A94&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>A95&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>A91&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>A42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>A43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>A63&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>A64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>A96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>A97&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>A116&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127 B129">
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>A127&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126 B130 B118">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>A118&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B121">
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>A119&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>A117&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:B112">
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>A109&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>A114&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>A122&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>A113&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>A124&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>A115&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>A138&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>A140&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>A139&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131:B134">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>A131&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>A136&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>A135&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>A137&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>A123&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>A128&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>A125&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>A107&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B118 B120">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>A118&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117 B121 B109">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>A109&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B112">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>A110&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B100 B102:B103">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>A100&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>A108&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>A100&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>A104&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>A105&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>A113&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>A104&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>A115&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>A101&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>A106&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>A129&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>A131&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>A130&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:B125">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>A122&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>A127&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>A126&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>A128&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>A114&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A119&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>A116&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
